--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_18_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_18_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>684217.2543316734</v>
+        <v>679094.5703878895</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8680782.803040368</v>
+        <v>8680782.803040365</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5812572.873440365</v>
+        <v>5812572.873440367</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>188.570127998239</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>150.3812571822725</v>
       </c>
       <c r="G11" t="n">
-        <v>402.534031931252</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2214126980871</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4.259309774520673</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>85.91570073608037</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1454,7 +1454,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>119.2878878475953</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>85.97048700994887</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>153.2045223101729</v>
+        <v>87.25730041345203</v>
       </c>
       <c r="U12" t="n">
         <v>195.3031364387235</v>
@@ -1514,10 +1514,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>64.72476697283348</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>71.77328146251702</v>
       </c>
       <c r="I13" t="n">
-        <v>86.76043262169277</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>168.0570925953575</v>
       </c>
       <c r="T13" t="n">
-        <v>233.1150376599508</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>279.9186143115952</v>
@@ -1596,7 +1596,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>107.1029592248784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>34.83863487501817</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>85.91570073608037</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>94.55806559943733</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1703,7 +1703,7 @@
         <v>104.7928835793171</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>30.68124008550416</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>153.2045223101729</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>72.77985421405485</v>
+        <v>195.3031364387235</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
@@ -1767,25 +1767,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.6327732551108</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>139.7084588006711</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>86.76043262169277</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.92423303279622</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.0570925953575</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>233.1150376599508</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9186143115952</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>266.6805541293711</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>30.67525257049098</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1849,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>180.2329727632908</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>402.534031931252</v>
+        <v>201.4349502847624</v>
       </c>
       <c r="H17" t="n">
         <v>286.2214126980871</v>
       </c>
       <c r="I17" t="n">
-        <v>4.259309774520659</v>
+        <v>4.259309774520673</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.7611609493298</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.3213292762975</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -1931,7 +1931,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475953</v>
+        <v>4.846515048297683</v>
       </c>
       <c r="F18" t="n">
         <v>107.8702810193205</v>
@@ -1940,7 +1940,7 @@
         <v>104.7928835793171</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>59.15212587485323</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>30.68124008550431</v>
+        <v>85.97048700994887</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>102.2062274798594</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>164.6327732551108</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.7084588006711</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>86.76043262169277</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.9242330327962</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.0570925953575</v>
+        <v>91.04972796039611</v>
       </c>
       <c r="T19" t="n">
         <v>233.1150376599508</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,19 +2089,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>386.7312715091069</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2214126980871</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4.259309774520659</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>85.91570073608037</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>206.4998254656515</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,7 +2174,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>76.32199778996802</v>
+        <v>104.7928835793171</v>
       </c>
       <c r="H21" t="n">
         <v>59.15212587485323</v>
@@ -2213,13 +2213,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>153.2045223101729</v>
       </c>
       <c r="U21" t="n">
         <v>195.3031364387235</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>29.89900363737435</v>
       </c>
       <c r="W21" t="n">
         <v>211.1008365810345</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>64.01593092433805</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>156.7735352934783</v>
+        <v>164.6327732551108</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>64.59472736805422</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>402.534031931252</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>4.259309774520659</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>142.7265404195625</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C24" t="n">
-        <v>132.6551205385437</v>
+        <v>77.36587361409893</v>
       </c>
       <c r="D24" t="n">
         <v>115.7281862028015</v>
@@ -2411,7 +2411,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>104.7928835793171</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>85.97048700994887</v>
       </c>
       <c r="T24" t="n">
-        <v>153.2045223101729</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>177.5727377933722</v>
+        <v>195.3031364387235</v>
       </c>
       <c r="V24" t="n">
         <v>211.5744117368965</v>
@@ -2478,19 +2478,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>16.89835816626555</v>
+        <v>164.6327732551108</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.0570925953575</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>175.8774526405758</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2560,22 +2560,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>402.534031931252</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>4.259309774520659</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>74.07673138316183</v>
+        <v>155.6825987478694</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2639,19 +2639,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
-        <v>107.8702810193205</v>
+        <v>41.92305912259997</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>104.7928835793171</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>59.15212587485323</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>135.4741236648217</v>
+        <v>153.2045223101729</v>
       </c>
       <c r="U27" t="n">
         <v>195.3031364387235</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>164.6327732551108</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>139.7084588006711</v>
       </c>
       <c r="I28" t="n">
-        <v>4.422001711984628</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>41.9242330327962</v>
       </c>
       <c r="S28" t="n">
         <v>168.0570925953575</v>
@@ -2769,7 +2769,7 @@
         <v>233.1150376599508</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9186143115952</v>
+        <v>78.36501055162978</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2214126980871</v>
+        <v>238.8222357205775</v>
       </c>
       <c r="I29" t="n">
         <v>4.259309774520659</v>
@@ -2851,13 +2851,13 @@
         <v>254.3213292762975</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>12.38061177345078</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>135.4741236648217</v>
+        <v>153.2045223101729</v>
       </c>
       <c r="U30" t="n">
-        <v>195.3031364387235</v>
+        <v>177.5727377933722</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>137.7328364292697</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.6327732551108</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>233.1150376599508</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9186143115952</v>
+        <v>278.8803607628537</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>60.33541759353371</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>4.259309774520659</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>74.46787317643846</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
-        <v>119.2878878475953</v>
+        <v>15.58700219229532</v>
       </c>
       <c r="F33" t="n">
         <v>107.8702810193205</v>
@@ -3164,7 +3164,7 @@
         <v>153.2045223101729</v>
       </c>
       <c r="U33" t="n">
-        <v>91.60225078342343</v>
+        <v>195.3031364387235</v>
       </c>
       <c r="V33" t="n">
         <v>211.5744117368965</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>71.15485162425692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>164.6327732551108</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>139.7084588006711</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>41.9242330327962</v>
       </c>
       <c r="S34" t="n">
         <v>168.0570925953575</v>
@@ -3252,7 +3252,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>127.1305419342993</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>402.534031931252</v>
+        <v>265.3777955823375</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>4.259309774520659</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>85.91570073608037</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>210.7611609493298</v>
       </c>
       <c r="U35" t="n">
-        <v>184.833596696475</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3359,10 +3359,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>104.7928835793171</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>59.15212587485323</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>85.97048700994887</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>153.2045223101729</v>
+        <v>135.4741236648217</v>
       </c>
       <c r="U36" t="n">
         <v>195.3031364387235</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
         <v>211.1008365810345</v>
@@ -3413,7 +3413,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y36" t="n">
-        <v>101.7364566672337</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="37">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>13.29928325424484</v>
       </c>
       <c r="H37" t="n">
-        <v>20.18741829171456</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.9242330327962</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.0570925953575</v>
       </c>
       <c r="T37" t="n">
         <v>233.1150376599508</v>
@@ -3489,7 +3489,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>90.39170747503009</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>316.0165194416319</v>
+        <v>402.534031931252</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>4.259309774520659</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.7611609493298</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,7 +3587,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>119.2878878475953</v>
@@ -3596,10 +3596,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>104.7928835793171</v>
+        <v>97.99778755745029</v>
       </c>
       <c r="H39" t="n">
-        <v>59.15212587485323</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,16 +3632,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>85.97048700994887</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>153.2045223101729</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>195.3031364387235</v>
       </c>
       <c r="V39" t="n">
-        <v>139.2316530661495</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
         <v>211.1008365810345</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3669,19 +3669,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>45.08945200497903</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.6327732551108</v>
       </c>
       <c r="H40" t="n">
-        <v>139.7084588006711</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>86.76043262169276</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9242330327962</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.1150376599508</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.6296691575645</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>402.534031931252</v>
+        <v>181.5421486803041</v>
       </c>
       <c r="H41" t="n">
-        <v>170.5724658896956</v>
+        <v>286.2214126980871</v>
       </c>
       <c r="I41" t="n">
         <v>4.259309774520659</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.7611609493298</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3213292762975</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>49.50363665487273</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>85.97048700994887</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>153.2045223101729</v>
       </c>
       <c r="U42" t="n">
-        <v>195.3031364387235</v>
+        <v>177.5727377933722</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -3915,7 +3915,7 @@
         <v>164.6327732551108</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>139.7084588006711</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.0570925953575</v>
       </c>
       <c r="T43" t="n">
-        <v>188.0011159158319</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>169.9866142598079</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>272.7684156679558</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2214126980871</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4.259309774520659</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>85.91570073608037</v>
       </c>
       <c r="T44" t="n">
-        <v>210.7611609493298</v>
+        <v>170.4049264460369</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4106,16 +4106,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>85.97048700994887</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>153.2045223101729</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3031364387235</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>139.2316530661493</v>
       </c>
       <c r="W45" t="n">
         <v>211.1008365810345</v>
@@ -4124,7 +4124,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>129.3370542504596</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="46">
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>103.116400443938</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -4152,10 +4152,10 @@
         <v>164.6327732551108</v>
       </c>
       <c r="H46" t="n">
-        <v>139.7084588006711</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>86.76043262169276</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>41.9242330327962</v>
       </c>
       <c r="S46" t="n">
-        <v>168.0570925953575</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.1150376599508</v>
       </c>
       <c r="U46" t="n">
         <v>279.9186143115952</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>110.9616130948531</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1342.267635447108</v>
+        <v>480.3649072667575</v>
       </c>
       <c r="C11" t="n">
-        <v>1342.267635447108</v>
+        <v>480.3649072667575</v>
       </c>
       <c r="D11" t="n">
-        <v>1342.267635447108</v>
+        <v>480.3649072667575</v>
       </c>
       <c r="E11" t="n">
-        <v>1151.79275868121</v>
+        <v>480.3649072667575</v>
       </c>
       <c r="F11" t="n">
-        <v>730.7623466348978</v>
+        <v>328.4646474866843</v>
       </c>
       <c r="G11" t="n">
-        <v>324.1623143811079</v>
+        <v>328.4646474866843</v>
       </c>
       <c r="H11" t="n">
-        <v>35.04977630223195</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="I11" t="n">
         <v>35.04977630223195</v>
@@ -5044,13 +5044,13 @@
         <v>139.4975455796487</v>
       </c>
       <c r="K11" t="n">
-        <v>316.5867763250665</v>
+        <v>316.5867763250662</v>
       </c>
       <c r="L11" t="n">
-        <v>551.2268399181751</v>
+        <v>551.2268399181748</v>
       </c>
       <c r="M11" t="n">
-        <v>825.1352431304736</v>
+        <v>825.1352431304731</v>
       </c>
       <c r="N11" t="n">
         <v>1105.344363062593</v>
@@ -5059,34 +5059,34 @@
         <v>1364.537108414118</v>
       </c>
       <c r="P11" t="n">
-        <v>1571.77921458767</v>
+        <v>1571.779214587669</v>
       </c>
       <c r="Q11" t="n">
-        <v>1707.899443143073</v>
+        <v>1707.899443143072</v>
       </c>
       <c r="R11" t="n">
-        <v>1752.488815111598</v>
+        <v>1752.488815111597</v>
       </c>
       <c r="S11" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.705279014546</v>
       </c>
       <c r="T11" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.705279014546</v>
       </c>
       <c r="U11" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.705279014546</v>
       </c>
       <c r="V11" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.705279014546</v>
       </c>
       <c r="W11" t="n">
-        <v>1752.488815111598</v>
+        <v>1281.944978149715</v>
       </c>
       <c r="X11" t="n">
-        <v>1752.488815111598</v>
+        <v>881.3015803186674</v>
       </c>
       <c r="Y11" t="n">
-        <v>1752.488815111598</v>
+        <v>480.3649072667575</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>680.9957208097385</v>
+        <v>564.0985630291309</v>
       </c>
       <c r="C12" t="n">
-        <v>547.0006495586841</v>
+        <v>430.1034917780765</v>
       </c>
       <c r="D12" t="n">
         <v>430.1034917780765</v>
@@ -5120,52 +5120,52 @@
         <v>53.13964940227879</v>
       </c>
       <c r="J12" t="n">
-        <v>228.275567190919</v>
+        <v>351.3952012021067</v>
       </c>
       <c r="K12" t="n">
-        <v>353.2264013507552</v>
+        <v>476.3460353619429</v>
       </c>
       <c r="L12" t="n">
-        <v>539.998846937168</v>
+        <v>663.1184809483557</v>
       </c>
       <c r="M12" t="n">
-        <v>765.7930130591483</v>
+        <v>888.912647070336</v>
       </c>
       <c r="N12" t="n">
-        <v>1199.533994799269</v>
+        <v>1126.518414088932</v>
       </c>
       <c r="O12" t="n">
-        <v>1407.897834511329</v>
+        <v>1334.882253800993</v>
       </c>
       <c r="P12" t="n">
-        <v>1567.298293732328</v>
+        <v>1494.282713021992</v>
       </c>
       <c r="Q12" t="n">
-        <v>1653.63600483296</v>
+        <v>1653.636004832959</v>
       </c>
       <c r="R12" t="n">
-        <v>1752.488815111598</v>
+        <v>1752.488815111597</v>
       </c>
       <c r="S12" t="n">
-        <v>1665.649939343973</v>
+        <v>1752.488815111597</v>
       </c>
       <c r="T12" t="n">
-        <v>1510.897896606424</v>
+        <v>1664.350127825282</v>
       </c>
       <c r="U12" t="n">
-        <v>1313.622001213774</v>
+        <v>1467.074232432632</v>
       </c>
       <c r="V12" t="n">
-        <v>1099.910474206808</v>
+        <v>1253.362705425666</v>
       </c>
       <c r="W12" t="n">
-        <v>886.6773059431367</v>
+        <v>1040.129537161995</v>
       </c>
       <c r="X12" t="n">
-        <v>886.6773059431367</v>
+        <v>863.8035553008875</v>
       </c>
       <c r="Y12" t="n">
-        <v>821.2987534453251</v>
+        <v>704.4015956647175</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>122.6865769302045</v>
+        <v>278.641412844068</v>
       </c>
       <c r="C13" t="n">
-        <v>122.6865769302045</v>
+        <v>107.5480404057845</v>
       </c>
       <c r="D13" t="n">
-        <v>122.6865769302045</v>
+        <v>107.5480404057845</v>
       </c>
       <c r="E13" t="n">
-        <v>122.6865769302045</v>
+        <v>107.5480404057845</v>
       </c>
       <c r="F13" t="n">
-        <v>122.6865769302045</v>
+        <v>107.5480404057845</v>
       </c>
       <c r="G13" t="n">
-        <v>122.6865769302045</v>
+        <v>107.5480404057845</v>
       </c>
       <c r="H13" t="n">
-        <v>122.6865769302045</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="I13" t="n">
         <v>35.04977630223195</v>
@@ -5205,46 +5205,46 @@
         <v>378.543013001709</v>
       </c>
       <c r="L13" t="n">
-        <v>777.5476490331416</v>
+        <v>463.5685377981185</v>
       </c>
       <c r="M13" t="n">
-        <v>915.2879138241982</v>
+        <v>897.3095195382389</v>
       </c>
       <c r="N13" t="n">
-        <v>1339.3086180298</v>
+        <v>1285.131342084177</v>
       </c>
       <c r="O13" t="n">
-        <v>1416.046148395913</v>
+        <v>1676.943631869031</v>
       </c>
       <c r="P13" t="n">
         <v>1734.885747605795</v>
       </c>
       <c r="Q13" t="n">
-        <v>1752.488815111598</v>
+        <v>1752.488815111597</v>
       </c>
       <c r="R13" t="n">
         <v>1710.14110497746</v>
       </c>
       <c r="S13" t="n">
-        <v>1540.386465992251</v>
+        <v>1540.38646599225</v>
       </c>
       <c r="T13" t="n">
-        <v>1304.916730982199</v>
+        <v>1540.38646599225</v>
       </c>
       <c r="U13" t="n">
-        <v>1022.170655919982</v>
+        <v>1257.640390930033</v>
       </c>
       <c r="V13" t="n">
-        <v>748.2849108595037</v>
+        <v>983.7546458695547</v>
       </c>
       <c r="W13" t="n">
-        <v>469.2152463683781</v>
+        <v>704.684981378429</v>
       </c>
       <c r="X13" t="n">
-        <v>230.8713842280615</v>
+        <v>466.3411192381124</v>
       </c>
       <c r="Y13" t="n">
-        <v>122.6865769302045</v>
+        <v>466.3411192381124</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>445.1743669889619</v>
+        <v>480.364907266758</v>
       </c>
       <c r="C14" t="n">
-        <v>35.04977630223196</v>
+        <v>70.24031658002809</v>
       </c>
       <c r="D14" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="E14" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="F14" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="G14" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="H14" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="I14" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="J14" t="n">
-        <v>139.4975455796489</v>
+        <v>139.4975455796487</v>
       </c>
       <c r="K14" t="n">
-        <v>316.5867763250665</v>
+        <v>316.5867763250664</v>
       </c>
       <c r="L14" t="n">
-        <v>551.2268399181753</v>
+        <v>551.2268399181751</v>
       </c>
       <c r="M14" t="n">
-        <v>825.1352431304737</v>
+        <v>825.1352431304733</v>
       </c>
       <c r="N14" t="n">
         <v>1105.344363062593</v>
       </c>
       <c r="O14" t="n">
-        <v>1364.537108414119</v>
+        <v>1364.537108414118</v>
       </c>
       <c r="P14" t="n">
-        <v>1571.77921458767</v>
+        <v>1571.779214587669</v>
       </c>
       <c r="Q14" t="n">
         <v>1707.899443143073</v>
@@ -5305,25 +5305,25 @@
         <v>1752.488815111598</v>
       </c>
       <c r="S14" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="T14" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="U14" t="n">
-        <v>1656.975617536409</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="V14" t="n">
-        <v>1656.975617536409</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="W14" t="n">
-        <v>1656.975617536409</v>
+        <v>1281.944978149715</v>
       </c>
       <c r="X14" t="n">
-        <v>1256.332219705361</v>
+        <v>881.3015803186679</v>
       </c>
       <c r="Y14" t="n">
-        <v>855.3955466534513</v>
+        <v>480.364907266758</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.246098713927</v>
+        <v>652.2372503154464</v>
       </c>
       <c r="C15" t="n">
-        <v>487.2510274628727</v>
+        <v>518.2421790643921</v>
       </c>
       <c r="D15" t="n">
-        <v>370.3538696822652</v>
+        <v>401.3450212837845</v>
       </c>
       <c r="E15" t="n">
-        <v>249.8610536745931</v>
+        <v>280.8522052761125</v>
       </c>
       <c r="F15" t="n">
-        <v>140.9011738570977</v>
+        <v>171.8923254586171</v>
       </c>
       <c r="G15" t="n">
-        <v>35.04977630223196</v>
+        <v>66.04092790375131</v>
       </c>
       <c r="H15" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="I15" t="n">
-        <v>53.13964940227881</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="J15" t="n">
-        <v>107.7267972274735</v>
+        <v>89.63692412742662</v>
       </c>
       <c r="K15" t="n">
-        <v>232.6776313873096</v>
+        <v>214.5877582872628</v>
       </c>
       <c r="L15" t="n">
-        <v>419.4500769737225</v>
+        <v>401.3602038736756</v>
       </c>
       <c r="M15" t="n">
-        <v>765.7930130591484</v>
+        <v>627.1543699956559</v>
       </c>
       <c r="N15" t="n">
-        <v>1199.533994799269</v>
+        <v>864.7601370142523</v>
       </c>
       <c r="O15" t="n">
-        <v>1407.897834511329</v>
+        <v>1073.123976726313</v>
       </c>
       <c r="P15" t="n">
-        <v>1567.298293732328</v>
+        <v>1232.524435947312</v>
       </c>
       <c r="Q15" t="n">
         <v>1653.63600483296</v>
@@ -5387,22 +5387,22 @@
         <v>1752.488815111598</v>
       </c>
       <c r="T15" t="n">
-        <v>1597.736772374049</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="U15" t="n">
-        <v>1524.221768117428</v>
+        <v>1555.212919718948</v>
       </c>
       <c r="V15" t="n">
-        <v>1310.510241110462</v>
+        <v>1341.501392711981</v>
       </c>
       <c r="W15" t="n">
-        <v>1097.277072846791</v>
+        <v>1128.26822444831</v>
       </c>
       <c r="X15" t="n">
-        <v>920.9510909856837</v>
+        <v>951.9422425872031</v>
       </c>
       <c r="Y15" t="n">
-        <v>761.5491313495137</v>
+        <v>792.5402829510331</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1086.231920981598</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="C16" t="n">
-        <v>915.138548543315</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="D16" t="n">
-        <v>755.6439038662249</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="E16" t="n">
-        <v>594.7330887345445</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="F16" t="n">
-        <v>430.1019628451357</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="G16" t="n">
-        <v>263.8062322844177</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="H16" t="n">
-        <v>122.6865769302045</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="I16" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="J16" t="n">
-        <v>115.2836835121643</v>
+        <v>52.7424310659311</v>
       </c>
       <c r="K16" t="n">
-        <v>378.543013001709</v>
+        <v>316.0017605554758</v>
       </c>
       <c r="L16" t="n">
-        <v>777.5476490331416</v>
+        <v>715.0063965869084</v>
       </c>
       <c r="M16" t="n">
-        <v>915.2879138241984</v>
+        <v>805.9734956472062</v>
       </c>
       <c r="N16" t="n">
-        <v>1339.308618029801</v>
+        <v>897.9598984052227</v>
       </c>
       <c r="O16" t="n">
-        <v>1416.046148395913</v>
+        <v>1289.772188190076</v>
       </c>
       <c r="P16" t="n">
-        <v>1734.885747605796</v>
+        <v>1608.611787399958</v>
       </c>
       <c r="Q16" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="R16" t="n">
-        <v>1710.14110497746</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="S16" t="n">
-        <v>1540.386465992251</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="T16" t="n">
-        <v>1304.916730982199</v>
+        <v>1517.019080101546</v>
       </c>
       <c r="U16" t="n">
-        <v>1304.916730982199</v>
+        <v>1234.273005039329</v>
       </c>
       <c r="V16" t="n">
-        <v>1304.916730982199</v>
+        <v>964.898707938954</v>
       </c>
       <c r="W16" t="n">
-        <v>1304.916730982199</v>
+        <v>685.8290434478283</v>
       </c>
       <c r="X16" t="n">
-        <v>1304.916730982199</v>
+        <v>447.4851813075117</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.931627375643</v>
+        <v>222.7494826962763</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1752.488815111598</v>
+        <v>531.9342942389695</v>
       </c>
       <c r="C17" t="n">
-        <v>1752.488815111598</v>
+        <v>531.9342942389695</v>
       </c>
       <c r="D17" t="n">
-        <v>1570.43530726989</v>
+        <v>531.9342942389695</v>
       </c>
       <c r="E17" t="n">
-        <v>1156.095091786787</v>
+        <v>531.9342942389695</v>
       </c>
       <c r="F17" t="n">
-        <v>735.0646797404743</v>
+        <v>531.9342942389695</v>
       </c>
       <c r="G17" t="n">
         <v>328.4646474866843</v>
       </c>
       <c r="H17" t="n">
-        <v>39.35210940780838</v>
+        <v>39.3521094078084</v>
       </c>
       <c r="I17" t="n">
         <v>35.04977630223196</v>
       </c>
       <c r="J17" t="n">
-        <v>139.4975455796488</v>
+        <v>139.4975455796489</v>
       </c>
       <c r="K17" t="n">
-        <v>316.5867763250664</v>
+        <v>316.5867763250665</v>
       </c>
       <c r="L17" t="n">
-        <v>551.2268399181751</v>
+        <v>551.2268399181753</v>
       </c>
       <c r="M17" t="n">
-        <v>825.1352431304733</v>
+        <v>825.1352431304736</v>
       </c>
       <c r="N17" t="n">
         <v>1105.344363062593</v>
       </c>
       <c r="O17" t="n">
-        <v>1364.537108414118</v>
+        <v>1364.537108414119</v>
       </c>
       <c r="P17" t="n">
         <v>1571.77921458767</v>
@@ -5545,22 +5545,22 @@
         <v>1752.488815111598</v>
       </c>
       <c r="T17" t="n">
-        <v>1752.488815111598</v>
+        <v>1539.598753546618</v>
       </c>
       <c r="U17" t="n">
-        <v>1752.488815111598</v>
+        <v>1282.708521954399</v>
       </c>
       <c r="V17" t="n">
-        <v>1752.488815111598</v>
+        <v>932.8709672908794</v>
       </c>
       <c r="W17" t="n">
-        <v>1752.488815111598</v>
+        <v>932.8709672908794</v>
       </c>
       <c r="X17" t="n">
-        <v>1752.488815111598</v>
+        <v>932.8709672908794</v>
       </c>
       <c r="Y17" t="n">
-        <v>1752.488815111598</v>
+        <v>531.9342942389695</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>621.246098713927</v>
+        <v>565.3983745478216</v>
       </c>
       <c r="C18" t="n">
-        <v>487.2510274628727</v>
+        <v>431.4033032967673</v>
       </c>
       <c r="D18" t="n">
-        <v>370.3538696822652</v>
+        <v>314.5061455161597</v>
       </c>
       <c r="E18" t="n">
-        <v>249.8610536745931</v>
+        <v>309.6106757704045</v>
       </c>
       <c r="F18" t="n">
-        <v>140.9011738570977</v>
+        <v>200.6507959529091</v>
       </c>
       <c r="G18" t="n">
-        <v>35.04977630223196</v>
+        <v>94.79939839804331</v>
       </c>
       <c r="H18" t="n">
         <v>35.04977630223196</v>
       </c>
       <c r="I18" t="n">
-        <v>53.13964940227881</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="J18" t="n">
-        <v>351.3952012021068</v>
+        <v>164.9772277499358</v>
       </c>
       <c r="K18" t="n">
-        <v>476.3460353619429</v>
+        <v>289.9280619097719</v>
       </c>
       <c r="L18" t="n">
-        <v>663.1184809483558</v>
+        <v>476.7005074961847</v>
       </c>
       <c r="M18" t="n">
-        <v>888.9126470703362</v>
+        <v>702.4946736181651</v>
       </c>
       <c r="N18" t="n">
-        <v>1126.518414088933</v>
+        <v>940.1004406367615</v>
       </c>
       <c r="O18" t="n">
-        <v>1334.882253800993</v>
+        <v>1148.464280348822</v>
       </c>
       <c r="P18" t="n">
-        <v>1494.282713021992</v>
+        <v>1307.864739569821</v>
       </c>
       <c r="Q18" t="n">
         <v>1741.605721309941</v>
@@ -5621,25 +5621,25 @@
         <v>1752.488815111598</v>
       </c>
       <c r="S18" t="n">
-        <v>1721.497663510078</v>
+        <v>1665.649939343973</v>
       </c>
       <c r="T18" t="n">
-        <v>1721.497663510078</v>
+        <v>1665.649939343973</v>
       </c>
       <c r="U18" t="n">
-        <v>1524.221768117428</v>
+        <v>1468.374043951323</v>
       </c>
       <c r="V18" t="n">
-        <v>1310.510241110462</v>
+        <v>1254.662516944357</v>
       </c>
       <c r="W18" t="n">
-        <v>1097.277072846791</v>
+        <v>1041.429348680686</v>
       </c>
       <c r="X18" t="n">
-        <v>920.9510909856837</v>
+        <v>865.1033668195782</v>
       </c>
       <c r="Y18" t="n">
-        <v>761.5491313495137</v>
+        <v>705.7014071834083</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>469.2152463683783</v>
+        <v>589.348173305507</v>
       </c>
       <c r="C19" t="n">
-        <v>469.2152463683783</v>
+        <v>589.348173305507</v>
       </c>
       <c r="D19" t="n">
-        <v>469.2152463683783</v>
+        <v>589.348173305507</v>
       </c>
       <c r="E19" t="n">
-        <v>365.9766327523587</v>
+        <v>428.4373581738265</v>
       </c>
       <c r="F19" t="n">
-        <v>201.34550686295</v>
+        <v>263.8062322844177</v>
       </c>
       <c r="G19" t="n">
-        <v>35.04977630223196</v>
+        <v>263.8062322844177</v>
       </c>
       <c r="H19" t="n">
-        <v>35.04977630223196</v>
+        <v>122.6865769302045</v>
       </c>
       <c r="I19" t="n">
         <v>35.04977630223196</v>
       </c>
       <c r="J19" t="n">
-        <v>107.8795732973007</v>
+        <v>115.2836835121643</v>
       </c>
       <c r="K19" t="n">
-        <v>371.1389027868454</v>
+        <v>378.543013001709</v>
       </c>
       <c r="L19" t="n">
-        <v>770.1435388182781</v>
+        <v>463.5685377981186</v>
       </c>
       <c r="M19" t="n">
-        <v>861.1106378785759</v>
+        <v>897.3095195382391</v>
       </c>
       <c r="N19" t="n">
-        <v>1285.131342084178</v>
+        <v>1321.330223743841</v>
       </c>
       <c r="O19" t="n">
-        <v>1676.943631869031</v>
+        <v>1398.067754109954</v>
       </c>
       <c r="P19" t="n">
-        <v>1734.885747605796</v>
+        <v>1608.611787399959</v>
       </c>
       <c r="Q19" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="R19" t="n">
-        <v>1710.14110497746</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="S19" t="n">
-        <v>1540.386465992251</v>
+        <v>1660.51939292938</v>
       </c>
       <c r="T19" t="n">
-        <v>1304.916730982199</v>
+        <v>1425.049657919328</v>
       </c>
       <c r="U19" t="n">
-        <v>1022.170655919982</v>
+        <v>1142.303582857111</v>
       </c>
       <c r="V19" t="n">
-        <v>748.284910859504</v>
+        <v>868.4178377966326</v>
       </c>
       <c r="W19" t="n">
-        <v>469.2152463683783</v>
+        <v>589.348173305507</v>
       </c>
       <c r="X19" t="n">
-        <v>469.2152463683783</v>
+        <v>589.348173305507</v>
       </c>
       <c r="Y19" t="n">
-        <v>469.2152463683783</v>
+        <v>589.348173305507</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1142.966459771151</v>
+        <v>1255.484099350057</v>
       </c>
       <c r="C20" t="n">
-        <v>1142.966459771151</v>
+        <v>1255.484099350057</v>
       </c>
       <c r="D20" t="n">
-        <v>738.5025298642112</v>
+        <v>851.0201694431178</v>
       </c>
       <c r="E20" t="n">
-        <v>324.1623143811079</v>
+        <v>851.0201694431178</v>
       </c>
       <c r="F20" t="n">
-        <v>324.1623143811079</v>
+        <v>429.9897573968053</v>
       </c>
       <c r="G20" t="n">
-        <v>324.1623143811079</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="H20" t="n">
-        <v>35.04977630223195</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="I20" t="n">
         <v>35.04977630223195</v>
@@ -5758,10 +5758,10 @@
         <v>316.5867763250664</v>
       </c>
       <c r="L20" t="n">
-        <v>551.2268399181752</v>
+        <v>551.226839918175</v>
       </c>
       <c r="M20" t="n">
-        <v>825.1352431304736</v>
+        <v>825.1352431304733</v>
       </c>
       <c r="N20" t="n">
         <v>1105.344363062593</v>
@@ -5779,25 +5779,25 @@
         <v>1752.488815111598</v>
       </c>
       <c r="S20" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="T20" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="U20" t="n">
-        <v>1543.903132823061</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="V20" t="n">
-        <v>1543.903132823061</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="W20" t="n">
-        <v>1543.903132823061</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="X20" t="n">
-        <v>1543.903132823061</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="Y20" t="n">
-        <v>1142.966459771151</v>
+        <v>1665.705279014547</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>652.2372503154464</v>
+        <v>680.9957208097385</v>
       </c>
       <c r="C21" t="n">
-        <v>518.2421790643921</v>
+        <v>547.0006495586841</v>
       </c>
       <c r="D21" t="n">
-        <v>401.3450212837845</v>
+        <v>430.1034917780765</v>
       </c>
       <c r="E21" t="n">
-        <v>280.8522052761125</v>
+        <v>309.6106757704045</v>
       </c>
       <c r="F21" t="n">
-        <v>171.8923254586171</v>
+        <v>200.6507959529091</v>
       </c>
       <c r="G21" t="n">
         <v>94.79939839804331</v>
@@ -5831,28 +5831,28 @@
         <v>53.13964940227881</v>
       </c>
       <c r="J21" t="n">
-        <v>107.7267972274735</v>
+        <v>351.3952012021068</v>
       </c>
       <c r="K21" t="n">
-        <v>289.9280619097713</v>
+        <v>476.3460353619429</v>
       </c>
       <c r="L21" t="n">
-        <v>476.7005074961842</v>
+        <v>663.1184809483558</v>
       </c>
       <c r="M21" t="n">
-        <v>702.4946736181646</v>
+        <v>888.9126470703362</v>
       </c>
       <c r="N21" t="n">
-        <v>940.100440636761</v>
+        <v>1126.518414088933</v>
       </c>
       <c r="O21" t="n">
-        <v>1148.464280348821</v>
+        <v>1334.882253800993</v>
       </c>
       <c r="P21" t="n">
-        <v>1307.864739569821</v>
+        <v>1494.282713021992</v>
       </c>
       <c r="Q21" t="n">
-        <v>1741.605721309941</v>
+        <v>1653.63600483296</v>
       </c>
       <c r="R21" t="n">
         <v>1752.488815111598</v>
@@ -5861,22 +5861,22 @@
         <v>1752.488815111598</v>
       </c>
       <c r="T21" t="n">
-        <v>1752.488815111598</v>
+        <v>1597.736772374049</v>
       </c>
       <c r="U21" t="n">
-        <v>1555.212919718948</v>
+        <v>1400.460876981399</v>
       </c>
       <c r="V21" t="n">
-        <v>1341.501392711981</v>
+        <v>1370.259863206274</v>
       </c>
       <c r="W21" t="n">
-        <v>1128.26822444831</v>
+        <v>1157.026694942602</v>
       </c>
       <c r="X21" t="n">
-        <v>951.9422425872031</v>
+        <v>980.7007130814951</v>
       </c>
       <c r="Y21" t="n">
-        <v>792.5402829510331</v>
+        <v>821.2987534453251</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>678.44346835746</v>
+        <v>266.0080633521803</v>
       </c>
       <c r="C22" t="n">
-        <v>678.44346835746</v>
+        <v>201.34550686295</v>
       </c>
       <c r="D22" t="n">
-        <v>518.94882368037</v>
+        <v>201.34550686295</v>
       </c>
       <c r="E22" t="n">
-        <v>358.0380085486894</v>
+        <v>201.34550686295</v>
       </c>
       <c r="F22" t="n">
-        <v>193.4068826592807</v>
+        <v>201.34550686295</v>
       </c>
       <c r="G22" t="n">
         <v>35.04977630223195</v>
@@ -5916,13 +5916,13 @@
         <v>313.5416493703726</v>
       </c>
       <c r="L22" t="n">
-        <v>712.5462854018053</v>
+        <v>398.5671741667823</v>
       </c>
       <c r="M22" t="n">
-        <v>803.5133844621031</v>
+        <v>789.0139536183611</v>
       </c>
       <c r="N22" t="n">
-        <v>897.9598984052227</v>
+        <v>1213.034657823963</v>
       </c>
       <c r="O22" t="n">
         <v>1289.772188190076</v>
@@ -5955,7 +5955,7 @@
         <v>678.44346835746</v>
       </c>
       <c r="Y22" t="n">
-        <v>678.44346835746</v>
+        <v>453.7077697462247</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1342.267635447109</v>
+        <v>874.7227369372241</v>
       </c>
       <c r="C23" t="n">
-        <v>1277.020436085438</v>
+        <v>874.7227369372241</v>
       </c>
       <c r="D23" t="n">
-        <v>1277.020436085438</v>
+        <v>874.7227369372241</v>
       </c>
       <c r="E23" t="n">
-        <v>862.6802206023344</v>
+        <v>460.3825214541208</v>
       </c>
       <c r="F23" t="n">
-        <v>441.6498085560219</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="G23" t="n">
-        <v>35.04977630223196</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="H23" t="n">
-        <v>35.04977630223196</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="I23" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="J23" t="n">
-        <v>139.4975455796487</v>
+        <v>139.4975455796488</v>
       </c>
       <c r="K23" t="n">
-        <v>316.5867763250662</v>
+        <v>316.5867763250664</v>
       </c>
       <c r="L23" t="n">
         <v>551.226839918175</v>
@@ -6004,7 +6004,7 @@
         <v>1105.344363062593</v>
       </c>
       <c r="O23" t="n">
-        <v>1364.537108414119</v>
+        <v>1364.537108414118</v>
       </c>
       <c r="P23" t="n">
         <v>1571.77921458767</v>
@@ -6022,19 +6022,19 @@
         <v>1752.488815111598</v>
       </c>
       <c r="U23" t="n">
-        <v>1752.488815111598</v>
+        <v>1608.320592465575</v>
       </c>
       <c r="V23" t="n">
-        <v>1752.488815111598</v>
+        <v>1258.483037802056</v>
       </c>
       <c r="W23" t="n">
-        <v>1752.488815111598</v>
+        <v>874.7227369372241</v>
       </c>
       <c r="X23" t="n">
-        <v>1752.488815111598</v>
+        <v>874.7227369372241</v>
       </c>
       <c r="Y23" t="n">
-        <v>1752.488815111598</v>
+        <v>874.7227369372241</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>515.3947011590612</v>
+        <v>565.3983745478212</v>
       </c>
       <c r="C24" t="n">
-        <v>381.399629908007</v>
+        <v>487.2510274628727</v>
       </c>
       <c r="D24" t="n">
-        <v>264.5024721273994</v>
+        <v>370.3538696822652</v>
       </c>
       <c r="E24" t="n">
-        <v>144.0096561197274</v>
+        <v>249.8610536745931</v>
       </c>
       <c r="F24" t="n">
-        <v>35.04977630223196</v>
+        <v>140.9011738570977</v>
       </c>
       <c r="G24" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="H24" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="I24" t="n">
-        <v>35.04977630223196</v>
+        <v>53.13964940227881</v>
       </c>
       <c r="J24" t="n">
-        <v>89.63692412742667</v>
+        <v>107.7267972274735</v>
       </c>
       <c r="K24" t="n">
-        <v>289.9280619097717</v>
+        <v>541.4677789675939</v>
       </c>
       <c r="L24" t="n">
-        <v>476.7005074961846</v>
+        <v>728.2402245540068</v>
       </c>
       <c r="M24" t="n">
-        <v>702.4946736181651</v>
+        <v>954.0343906759872</v>
       </c>
       <c r="N24" t="n">
-        <v>940.1004406367615</v>
+        <v>1191.640157694584</v>
       </c>
       <c r="O24" t="n">
-        <v>1148.464280348822</v>
+        <v>1400.003997406644</v>
       </c>
       <c r="P24" t="n">
-        <v>1307.864739569821</v>
+        <v>1559.404456627643</v>
       </c>
       <c r="Q24" t="n">
-        <v>1741.605721309941</v>
+        <v>1653.63600483296</v>
       </c>
       <c r="R24" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="S24" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.649939343973</v>
       </c>
       <c r="T24" t="n">
-        <v>1597.73677237405</v>
+        <v>1665.649939343973</v>
       </c>
       <c r="U24" t="n">
-        <v>1418.370370562563</v>
+        <v>1468.374043951323</v>
       </c>
       <c r="V24" t="n">
-        <v>1204.658843555596</v>
+        <v>1254.662516944356</v>
       </c>
       <c r="W24" t="n">
-        <v>991.425675291925</v>
+        <v>1041.429348680685</v>
       </c>
       <c r="X24" t="n">
-        <v>815.0996934308179</v>
+        <v>865.1033668195778</v>
       </c>
       <c r="Y24" t="n">
-        <v>655.6977337946479</v>
+        <v>705.7014071834078</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>548.7541384143982</v>
+        <v>201.34550686295</v>
       </c>
       <c r="C25" t="n">
-        <v>377.6607659761147</v>
+        <v>201.34550686295</v>
       </c>
       <c r="D25" t="n">
-        <v>377.6607659761147</v>
+        <v>201.34550686295</v>
       </c>
       <c r="E25" t="n">
-        <v>216.7499508444342</v>
+        <v>201.34550686295</v>
       </c>
       <c r="F25" t="n">
-        <v>52.11882495502545</v>
+        <v>201.34550686295</v>
       </c>
       <c r="G25" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="H25" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="I25" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="J25" t="n">
         <v>50.28231988082791</v>
@@ -6153,19 +6153,19 @@
         <v>107.2614557846585</v>
       </c>
       <c r="L25" t="n">
-        <v>427.3696561384556</v>
+        <v>427.3696561384552</v>
       </c>
       <c r="M25" t="n">
-        <v>861.1106378785761</v>
+        <v>861.1106378785756</v>
       </c>
       <c r="N25" t="n">
         <v>1285.131342084178</v>
       </c>
       <c r="O25" t="n">
-        <v>1676.943631869032</v>
+        <v>1676.943631869031</v>
       </c>
       <c r="P25" t="n">
-        <v>1734.885747605796</v>
+        <v>1734.885747605795</v>
       </c>
       <c r="Q25" t="n">
         <v>1752.488815111598</v>
@@ -6174,25 +6174,25 @@
         <v>1752.488815111598</v>
       </c>
       <c r="S25" t="n">
-        <v>1752.488815111598</v>
+        <v>1582.734176126388</v>
       </c>
       <c r="T25" t="n">
-        <v>1752.488815111598</v>
+        <v>1582.734176126388</v>
       </c>
       <c r="U25" t="n">
-        <v>1752.488815111598</v>
+        <v>1405.08018356015</v>
       </c>
       <c r="V25" t="n">
-        <v>1478.60307005112</v>
+        <v>1131.194438499672</v>
       </c>
       <c r="W25" t="n">
-        <v>1199.533405559994</v>
+        <v>852.1247740085462</v>
       </c>
       <c r="X25" t="n">
-        <v>961.1895434196779</v>
+        <v>613.7809118682296</v>
       </c>
       <c r="Y25" t="n">
-        <v>736.4538448084426</v>
+        <v>389.0452132569944</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1277.020436085438</v>
+        <v>443.8160393147479</v>
       </c>
       <c r="C26" t="n">
-        <v>1277.020436085438</v>
+        <v>443.8160393147479</v>
       </c>
       <c r="D26" t="n">
-        <v>1277.020436085438</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="E26" t="n">
-        <v>862.6802206023344</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="F26" t="n">
-        <v>441.6498085560219</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="G26" t="n">
-        <v>35.04977630223196</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="H26" t="n">
-        <v>35.04977630223196</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="I26" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="J26" t="n">
         <v>139.4975455796487</v>
@@ -6259,19 +6259,19 @@
         <v>1752.488815111598</v>
       </c>
       <c r="U26" t="n">
-        <v>1677.663833916485</v>
+        <v>1595.233664861224</v>
       </c>
       <c r="V26" t="n">
-        <v>1677.663833916485</v>
+        <v>1245.396110197705</v>
       </c>
       <c r="W26" t="n">
-        <v>1677.663833916485</v>
+        <v>1245.396110197705</v>
       </c>
       <c r="X26" t="n">
-        <v>1277.020436085438</v>
+        <v>844.7527123666578</v>
       </c>
       <c r="Y26" t="n">
-        <v>1277.020436085438</v>
+        <v>443.8160393147479</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>515.3947011590612</v>
+        <v>497.485207577898</v>
       </c>
       <c r="C27" t="n">
-        <v>381.399629908007</v>
+        <v>363.4901363268437</v>
       </c>
       <c r="D27" t="n">
-        <v>264.5024721273994</v>
+        <v>363.4901363268437</v>
       </c>
       <c r="E27" t="n">
-        <v>144.0096561197274</v>
+        <v>242.9973203191717</v>
       </c>
       <c r="F27" t="n">
-        <v>35.04977630223196</v>
+        <v>200.6507959529091</v>
       </c>
       <c r="G27" t="n">
-        <v>35.04977630223196</v>
+        <v>94.79939839804331</v>
       </c>
       <c r="H27" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="I27" t="n">
         <v>53.13964940227881</v>
@@ -6308,25 +6308,25 @@
         <v>351.3952012021068</v>
       </c>
       <c r="K27" t="n">
-        <v>476.3460353619429</v>
+        <v>549.3616160722786</v>
       </c>
       <c r="L27" t="n">
-        <v>663.1184809483558</v>
+        <v>736.1340616586915</v>
       </c>
       <c r="M27" t="n">
-        <v>888.9126470703362</v>
+        <v>961.9282277806719</v>
       </c>
       <c r="N27" t="n">
-        <v>1126.518414088933</v>
+        <v>1199.533994799268</v>
       </c>
       <c r="O27" t="n">
-        <v>1334.882253800993</v>
+        <v>1407.897834511329</v>
       </c>
       <c r="P27" t="n">
-        <v>1494.282713021992</v>
+        <v>1567.298293732328</v>
       </c>
       <c r="Q27" t="n">
-        <v>1741.605721309941</v>
+        <v>1653.63600483296</v>
       </c>
       <c r="R27" t="n">
         <v>1752.488815111598</v>
@@ -6335,22 +6335,22 @@
         <v>1752.488815111598</v>
       </c>
       <c r="T27" t="n">
-        <v>1615.646265955213</v>
+        <v>1597.736772374049</v>
       </c>
       <c r="U27" t="n">
-        <v>1418.370370562563</v>
+        <v>1400.460876981399</v>
       </c>
       <c r="V27" t="n">
-        <v>1204.658843555596</v>
+        <v>1186.749349974433</v>
       </c>
       <c r="W27" t="n">
-        <v>991.425675291925</v>
+        <v>973.5161817107618</v>
       </c>
       <c r="X27" t="n">
-        <v>815.0996934308179</v>
+        <v>797.1901998496546</v>
       </c>
       <c r="Y27" t="n">
-        <v>655.6977337946479</v>
+        <v>637.7882402134846</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>511.562956502516</v>
+        <v>672.8047451158179</v>
       </c>
       <c r="C28" t="n">
-        <v>511.562956502516</v>
+        <v>501.7113726775345</v>
       </c>
       <c r="D28" t="n">
-        <v>511.562956502516</v>
+        <v>501.7113726775345</v>
       </c>
       <c r="E28" t="n">
-        <v>511.562956502516</v>
+        <v>340.800557545854</v>
       </c>
       <c r="F28" t="n">
-        <v>346.9318306131073</v>
+        <v>176.1694316564452</v>
       </c>
       <c r="G28" t="n">
-        <v>180.6361000523893</v>
+        <v>176.1694316564452</v>
       </c>
       <c r="H28" t="n">
-        <v>39.51644469817603</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="I28" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="J28" t="n">
         <v>50.28231988082791</v>
@@ -6390,46 +6390,46 @@
         <v>107.2614557846585</v>
       </c>
       <c r="L28" t="n">
-        <v>427.3696561384556</v>
+        <v>506.2660918160911</v>
       </c>
       <c r="M28" t="n">
-        <v>861.1106378785761</v>
+        <v>861.1106378785756</v>
       </c>
       <c r="N28" t="n">
         <v>1285.131342084178</v>
       </c>
       <c r="O28" t="n">
-        <v>1676.943631869032</v>
+        <v>1676.943631869031</v>
       </c>
       <c r="P28" t="n">
-        <v>1734.885747605796</v>
+        <v>1734.885747605795</v>
       </c>
       <c r="Q28" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="R28" t="n">
-        <v>1752.488815111598</v>
+        <v>1710.14110497746</v>
       </c>
       <c r="S28" t="n">
-        <v>1582.734176126389</v>
+        <v>1540.386465992251</v>
       </c>
       <c r="T28" t="n">
-        <v>1347.264441116337</v>
+        <v>1304.916730982199</v>
       </c>
       <c r="U28" t="n">
-        <v>1064.51836605412</v>
+        <v>1225.760154667422</v>
       </c>
       <c r="V28" t="n">
-        <v>790.6326209936417</v>
+        <v>951.8744096069436</v>
       </c>
       <c r="W28" t="n">
-        <v>511.562956502516</v>
+        <v>672.8047451158179</v>
       </c>
       <c r="X28" t="n">
-        <v>511.562956502516</v>
+        <v>672.8047451158179</v>
       </c>
       <c r="Y28" t="n">
-        <v>511.562956502516</v>
+        <v>672.8047451158179</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>749.4950595329967</v>
+        <v>701.6171029900577</v>
       </c>
       <c r="C29" t="n">
-        <v>749.4950595329967</v>
+        <v>701.6171029900577</v>
       </c>
       <c r="D29" t="n">
-        <v>749.4950595329967</v>
+        <v>701.6171029900577</v>
       </c>
       <c r="E29" t="n">
-        <v>749.4950595329967</v>
+        <v>701.6171029900577</v>
       </c>
       <c r="F29" t="n">
-        <v>328.4646474866843</v>
+        <v>280.5866909437452</v>
       </c>
       <c r="G29" t="n">
-        <v>328.4646474866843</v>
+        <v>280.5866909437452</v>
       </c>
       <c r="H29" t="n">
         <v>39.35210940780838</v>
@@ -6463,19 +6463,19 @@
         <v>35.04977630223196</v>
       </c>
       <c r="J29" t="n">
-        <v>139.4975455796484</v>
+        <v>139.4975455796487</v>
       </c>
       <c r="K29" t="n">
-        <v>316.5867763250662</v>
+        <v>316.5867763250665</v>
       </c>
       <c r="L29" t="n">
-        <v>551.2268399181753</v>
+        <v>551.2268399181752</v>
       </c>
       <c r="M29" t="n">
-        <v>825.1352431304738</v>
+        <v>825.1352431304736</v>
       </c>
       <c r="N29" t="n">
-        <v>1105.344363062594</v>
+        <v>1105.344363062593</v>
       </c>
       <c r="O29" t="n">
         <v>1364.537108414119</v>
@@ -6499,16 +6499,16 @@
         <v>1495.598583519379</v>
       </c>
       <c r="V29" t="n">
-        <v>1145.761028855859</v>
+        <v>1495.598583519379</v>
       </c>
       <c r="W29" t="n">
-        <v>762.0007279910278</v>
+        <v>1111.838282654547</v>
       </c>
       <c r="X29" t="n">
-        <v>749.4950595329967</v>
+        <v>1111.838282654547</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.4950595329967</v>
+        <v>1111.838282654547</v>
       </c>
     </row>
     <row r="30">
@@ -6572,7 +6572,7 @@
         <v>1752.488815111598</v>
       </c>
       <c r="T30" t="n">
-        <v>1615.646265955213</v>
+        <v>1597.73677237405</v>
       </c>
       <c r="U30" t="n">
         <v>1418.370370562563</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>511.562956502516</v>
+        <v>365.6377934176055</v>
       </c>
       <c r="C31" t="n">
-        <v>340.4695840642325</v>
+        <v>194.544420979322</v>
       </c>
       <c r="D31" t="n">
-        <v>340.4695840642325</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="E31" t="n">
-        <v>201.34550686295</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="F31" t="n">
-        <v>201.34550686295</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="G31" t="n">
         <v>35.04977630223196</v>
@@ -6624,22 +6624,22 @@
         <v>50.28231988082791</v>
       </c>
       <c r="K31" t="n">
-        <v>313.5416493703726</v>
+        <v>107.2614557846585</v>
       </c>
       <c r="L31" t="n">
-        <v>712.5462854018053</v>
+        <v>427.3696561384556</v>
       </c>
       <c r="M31" t="n">
-        <v>1121.048255065947</v>
+        <v>861.1106378785761</v>
       </c>
       <c r="N31" t="n">
-        <v>1213.034657823964</v>
+        <v>1285.131342084178</v>
       </c>
       <c r="O31" t="n">
-        <v>1289.772188190077</v>
+        <v>1676.943631869032</v>
       </c>
       <c r="P31" t="n">
-        <v>1608.611787399959</v>
+        <v>1734.885747605796</v>
       </c>
       <c r="Q31" t="n">
         <v>1752.488815111598</v>
@@ -6654,19 +6654,19 @@
         <v>1347.264441116337</v>
       </c>
       <c r="U31" t="n">
-        <v>1064.51836605412</v>
+        <v>1065.567107012444</v>
       </c>
       <c r="V31" t="n">
-        <v>790.6326209936417</v>
+        <v>791.6813619519664</v>
       </c>
       <c r="W31" t="n">
-        <v>511.562956502516</v>
+        <v>791.6813619519664</v>
       </c>
       <c r="X31" t="n">
-        <v>511.562956502516</v>
+        <v>553.3374998116499</v>
       </c>
       <c r="Y31" t="n">
-        <v>511.562956502516</v>
+        <v>553.3374998116499</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1677.268741196004</v>
+        <v>1342.267635447109</v>
       </c>
       <c r="C32" t="n">
-        <v>1267.144150509274</v>
+        <v>1342.267635447109</v>
       </c>
       <c r="D32" t="n">
-        <v>862.6802206023344</v>
+        <v>1281.322769191014</v>
       </c>
       <c r="E32" t="n">
-        <v>862.6802206023344</v>
+        <v>866.9825537079107</v>
       </c>
       <c r="F32" t="n">
-        <v>441.6498085560219</v>
+        <v>445.9521416615983</v>
       </c>
       <c r="G32" t="n">
-        <v>35.04977630223196</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="H32" t="n">
-        <v>35.04977630223196</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="I32" t="n">
         <v>35.04977630223196</v>
       </c>
       <c r="J32" t="n">
-        <v>139.4975455796487</v>
+        <v>139.4975455796489</v>
       </c>
       <c r="K32" t="n">
-        <v>316.5867763250663</v>
+        <v>316.5867763250665</v>
       </c>
       <c r="L32" t="n">
         <v>551.2268399181753</v>
@@ -6736,16 +6736,16 @@
         <v>1752.488815111598</v>
       </c>
       <c r="V32" t="n">
-        <v>1677.268741196004</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="W32" t="n">
-        <v>1677.268741196004</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="X32" t="n">
-        <v>1677.268741196004</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="Y32" t="n">
-        <v>1677.268741196004</v>
+        <v>1752.488815111598</v>
       </c>
     </row>
     <row r="33">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>515.3947011590612</v>
+        <v>410.6463318102734</v>
       </c>
       <c r="C33" t="n">
-        <v>381.399629908007</v>
+        <v>276.6512605592191</v>
       </c>
       <c r="D33" t="n">
-        <v>264.5024721273994</v>
+        <v>159.7541027786115</v>
       </c>
       <c r="E33" t="n">
         <v>144.0096561197274</v>
@@ -6776,31 +6776,31 @@
         <v>35.04977630223196</v>
       </c>
       <c r="I33" t="n">
-        <v>35.04977630223196</v>
+        <v>53.13964940227881</v>
       </c>
       <c r="J33" t="n">
-        <v>333.3053281020599</v>
+        <v>351.3952012021068</v>
       </c>
       <c r="K33" t="n">
-        <v>458.2561622618961</v>
+        <v>476.3460353619429</v>
       </c>
       <c r="L33" t="n">
-        <v>645.028607848309</v>
+        <v>663.1184809483558</v>
       </c>
       <c r="M33" t="n">
-        <v>870.8227739702894</v>
+        <v>888.9126470703362</v>
       </c>
       <c r="N33" t="n">
-        <v>1108.428540988886</v>
+        <v>1126.518414088933</v>
       </c>
       <c r="O33" t="n">
-        <v>1316.792380700946</v>
+        <v>1334.882253800993</v>
       </c>
       <c r="P33" t="n">
-        <v>1476.192839921946</v>
+        <v>1494.282713021992</v>
       </c>
       <c r="Q33" t="n">
-        <v>1741.605721309941</v>
+        <v>1653.63600483296</v>
       </c>
       <c r="R33" t="n">
         <v>1752.488815111598</v>
@@ -6812,19 +6812,19 @@
         <v>1510.897896606425</v>
       </c>
       <c r="U33" t="n">
-        <v>1418.370370562563</v>
+        <v>1313.622001213775</v>
       </c>
       <c r="V33" t="n">
-        <v>1204.658843555596</v>
+        <v>1099.910474206808</v>
       </c>
       <c r="W33" t="n">
-        <v>991.425675291925</v>
+        <v>886.6773059431372</v>
       </c>
       <c r="X33" t="n">
-        <v>815.0996934308179</v>
+        <v>710.35132408203</v>
       </c>
       <c r="Y33" t="n">
-        <v>655.6977337946479</v>
+        <v>550.9493644458601</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>273.2190943621994</v>
+        <v>340.800557545854</v>
       </c>
       <c r="C34" t="n">
-        <v>273.2190943621994</v>
+        <v>340.800557545854</v>
       </c>
       <c r="D34" t="n">
-        <v>273.2190943621994</v>
+        <v>340.800557545854</v>
       </c>
       <c r="E34" t="n">
-        <v>201.34550686295</v>
+        <v>340.800557545854</v>
       </c>
       <c r="F34" t="n">
-        <v>201.34550686295</v>
+        <v>176.1694316564452</v>
       </c>
       <c r="G34" t="n">
-        <v>35.04977630223196</v>
+        <v>176.1694316564452</v>
       </c>
       <c r="H34" t="n">
         <v>35.04977630223196</v>
@@ -6861,49 +6861,49 @@
         <v>115.2836835121643</v>
       </c>
       <c r="K34" t="n">
-        <v>172.2628194159949</v>
+        <v>378.543013001709</v>
       </c>
       <c r="L34" t="n">
-        <v>571.2674554474276</v>
+        <v>715.0063965869089</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.008437187548</v>
+        <v>805.9734956472066</v>
       </c>
       <c r="N34" t="n">
-        <v>1429.02914139315</v>
+        <v>897.9598984052232</v>
       </c>
       <c r="O34" t="n">
-        <v>1676.943631869032</v>
+        <v>1289.772188190077</v>
       </c>
       <c r="P34" t="n">
-        <v>1734.885747605796</v>
+        <v>1608.611787399959</v>
       </c>
       <c r="Q34" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="R34" t="n">
-        <v>1752.488815111598</v>
+        <v>1710.141104977461</v>
       </c>
       <c r="S34" t="n">
-        <v>1582.734176126389</v>
+        <v>1540.386465992251</v>
       </c>
       <c r="T34" t="n">
-        <v>1347.264441116337</v>
+        <v>1304.9167309822</v>
       </c>
       <c r="U34" t="n">
-        <v>1064.51836605412</v>
+        <v>1022.170655919982</v>
       </c>
       <c r="V34" t="n">
-        <v>790.6326209936417</v>
+        <v>748.2849108595042</v>
       </c>
       <c r="W34" t="n">
-        <v>511.562956502516</v>
+        <v>469.2152463683785</v>
       </c>
       <c r="X34" t="n">
-        <v>273.2190943621994</v>
+        <v>340.800557545854</v>
       </c>
       <c r="Y34" t="n">
-        <v>273.2190943621994</v>
+        <v>340.800557545854</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1266.114614725855</v>
+        <v>728.4409008302193</v>
       </c>
       <c r="C35" t="n">
-        <v>855.9900240391253</v>
+        <v>728.4409008302193</v>
       </c>
       <c r="D35" t="n">
-        <v>855.9900240391253</v>
+        <v>728.4409008302193</v>
       </c>
       <c r="E35" t="n">
-        <v>441.6498085560219</v>
+        <v>728.4409008302193</v>
       </c>
       <c r="F35" t="n">
-        <v>441.6498085560219</v>
+        <v>307.4104887839069</v>
       </c>
       <c r="G35" t="n">
-        <v>35.04977630223195</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="H35" t="n">
-        <v>35.04977630223195</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="I35" t="n">
-        <v>35.04977630223195</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="J35" t="n">
-        <v>139.4975455796488</v>
+        <v>139.4975455796484</v>
       </c>
       <c r="K35" t="n">
-        <v>316.5867763250664</v>
+        <v>316.586776325066</v>
       </c>
       <c r="L35" t="n">
-        <v>551.226839918175</v>
+        <v>551.2268399181746</v>
       </c>
       <c r="M35" t="n">
-        <v>825.1352431304733</v>
+        <v>825.1352431304731</v>
       </c>
       <c r="N35" t="n">
         <v>1105.344363062593</v>
@@ -6964,25 +6964,25 @@
         <v>1752.488815111598</v>
       </c>
       <c r="S35" t="n">
-        <v>1665.705279014547</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="T35" t="n">
-        <v>1452.815217449567</v>
+        <v>1539.598753546619</v>
       </c>
       <c r="U35" t="n">
-        <v>1266.114614725855</v>
+        <v>1539.598753546619</v>
       </c>
       <c r="V35" t="n">
-        <v>1266.114614725855</v>
+        <v>1539.598753546619</v>
       </c>
       <c r="W35" t="n">
-        <v>1266.114614725855</v>
+        <v>1539.598753546619</v>
       </c>
       <c r="X35" t="n">
-        <v>1266.114614725855</v>
+        <v>1539.598753546619</v>
       </c>
       <c r="Y35" t="n">
-        <v>1266.114614725855</v>
+        <v>1138.662080494709</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>680.9957208097385</v>
+        <v>515.3947011590612</v>
       </c>
       <c r="C36" t="n">
-        <v>547.0006495586841</v>
+        <v>381.399629908007</v>
       </c>
       <c r="D36" t="n">
-        <v>430.1034917780765</v>
+        <v>264.5024721273994</v>
       </c>
       <c r="E36" t="n">
-        <v>309.6106757704045</v>
+        <v>144.0096561197274</v>
       </c>
       <c r="F36" t="n">
-        <v>200.6507959529091</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="G36" t="n">
-        <v>94.79939839804331</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="H36" t="n">
-        <v>35.04977630223195</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="I36" t="n">
-        <v>53.13964940227881</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="J36" t="n">
-        <v>107.7267972274735</v>
+        <v>89.63692412742667</v>
       </c>
       <c r="K36" t="n">
-        <v>232.6776313873097</v>
+        <v>214.5877582872628</v>
       </c>
       <c r="L36" t="n">
-        <v>666.41861312743</v>
+        <v>401.3602038736757</v>
       </c>
       <c r="M36" t="n">
-        <v>1049.897944257653</v>
+        <v>627.1543699956561</v>
       </c>
       <c r="N36" t="n">
-        <v>1287.50371127625</v>
+        <v>864.7601370142527</v>
       </c>
       <c r="O36" t="n">
-        <v>1495.86755098831</v>
+        <v>1073.123976726313</v>
       </c>
       <c r="P36" t="n">
-        <v>1655.268010209309</v>
+        <v>1232.524435947312</v>
       </c>
       <c r="Q36" t="n">
-        <v>1741.605721309941</v>
+        <v>1653.63600483296</v>
       </c>
       <c r="R36" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="S36" t="n">
-        <v>1665.649939343973</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="T36" t="n">
-        <v>1510.897896606424</v>
+        <v>1615.646265955213</v>
       </c>
       <c r="U36" t="n">
-        <v>1313.622001213774</v>
+        <v>1418.370370562563</v>
       </c>
       <c r="V36" t="n">
-        <v>1313.622001213774</v>
+        <v>1204.658843555596</v>
       </c>
       <c r="W36" t="n">
-        <v>1100.388832950103</v>
+        <v>991.425675291925</v>
       </c>
       <c r="X36" t="n">
-        <v>924.0628510889956</v>
+        <v>815.0996934308179</v>
       </c>
       <c r="Y36" t="n">
-        <v>821.2987534453251</v>
+        <v>655.6977337946479</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>226.5344803483079</v>
+        <v>48.48339575096412</v>
       </c>
       <c r="C37" t="n">
-        <v>55.44110791002444</v>
+        <v>48.48339575096412</v>
       </c>
       <c r="D37" t="n">
-        <v>55.44110791002444</v>
+        <v>48.48339575096412</v>
       </c>
       <c r="E37" t="n">
-        <v>55.44110791002444</v>
+        <v>48.48339575096412</v>
       </c>
       <c r="F37" t="n">
-        <v>55.44110791002444</v>
+        <v>48.48339575096412</v>
       </c>
       <c r="G37" t="n">
-        <v>55.44110791002444</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="H37" t="n">
-        <v>35.04977630223195</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="I37" t="n">
-        <v>35.04977630223195</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="J37" t="n">
-        <v>50.28231988082791</v>
+        <v>115.2836835121643</v>
       </c>
       <c r="K37" t="n">
-        <v>107.2614557846585</v>
+        <v>378.543013001709</v>
       </c>
       <c r="L37" t="n">
-        <v>427.3696561384552</v>
+        <v>777.5476490331416</v>
       </c>
       <c r="M37" t="n">
-        <v>861.1106378785756</v>
+        <v>868.5147480934394</v>
       </c>
       <c r="N37" t="n">
-        <v>1285.131342084178</v>
+        <v>960.5011508514559</v>
       </c>
       <c r="O37" t="n">
-        <v>1676.943631869031</v>
+        <v>1352.313440636309</v>
       </c>
       <c r="P37" t="n">
-        <v>1734.885747605795</v>
+        <v>1671.153039846191</v>
       </c>
       <c r="Q37" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="R37" t="n">
-        <v>1710.14110497746</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="S37" t="n">
-        <v>1710.14110497746</v>
+        <v>1582.734176126389</v>
       </c>
       <c r="T37" t="n">
-        <v>1474.671369967409</v>
+        <v>1347.264441116337</v>
       </c>
       <c r="U37" t="n">
-        <v>1191.925294905191</v>
+        <v>1064.51836605412</v>
       </c>
       <c r="V37" t="n">
-        <v>918.0395498447133</v>
+        <v>790.6326209936417</v>
       </c>
       <c r="W37" t="n">
-        <v>638.9698853535876</v>
+        <v>511.562956502516</v>
       </c>
       <c r="X37" t="n">
-        <v>638.9698853535876</v>
+        <v>273.2190943621994</v>
       </c>
       <c r="Y37" t="n">
-        <v>414.2341867423523</v>
+        <v>48.48339575096412</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>354.2583817988299</v>
+        <v>1260.540662255268</v>
       </c>
       <c r="C38" t="n">
-        <v>354.2583817988299</v>
+        <v>850.4160715685377</v>
       </c>
       <c r="D38" t="n">
-        <v>354.2583817988299</v>
+        <v>445.9521416615983</v>
       </c>
       <c r="E38" t="n">
-        <v>354.2583817988299</v>
+        <v>445.9521416615983</v>
       </c>
       <c r="F38" t="n">
-        <v>354.2583817988299</v>
+        <v>445.9521416615983</v>
       </c>
       <c r="G38" t="n">
-        <v>35.04977630223196</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="H38" t="n">
-        <v>35.04977630223196</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="I38" t="n">
         <v>35.04977630223196</v>
@@ -7183,13 +7183,13 @@
         <v>551.2268399181748</v>
       </c>
       <c r="M38" t="n">
-        <v>825.1352431304733</v>
+        <v>825.1352431304731</v>
       </c>
       <c r="N38" t="n">
         <v>1105.344363062593</v>
       </c>
       <c r="O38" t="n">
-        <v>1364.537108414119</v>
+        <v>1364.537108414118</v>
       </c>
       <c r="P38" t="n">
         <v>1571.77921458767</v>
@@ -7204,22 +7204,22 @@
         <v>1752.488815111598</v>
       </c>
       <c r="T38" t="n">
-        <v>1539.598753546619</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="U38" t="n">
-        <v>1539.598753546619</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="V38" t="n">
-        <v>1539.598753546619</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="W38" t="n">
-        <v>1155.838452681787</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="X38" t="n">
-        <v>755.1950548507398</v>
+        <v>1351.845417280551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.2583817988299</v>
+        <v>1351.845417280551</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>680.9957208097385</v>
+        <v>497.4852075778984</v>
       </c>
       <c r="C39" t="n">
-        <v>547.0006495586841</v>
+        <v>363.4901363268442</v>
       </c>
       <c r="D39" t="n">
-        <v>430.1034917780765</v>
+        <v>363.4901363268442</v>
       </c>
       <c r="E39" t="n">
-        <v>309.6106757704045</v>
+        <v>242.9973203191721</v>
       </c>
       <c r="F39" t="n">
-        <v>200.6507959529091</v>
+        <v>134.0374405016767</v>
       </c>
       <c r="G39" t="n">
-        <v>94.79939839804331</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="H39" t="n">
         <v>35.04977630223196</v>
       </c>
       <c r="I39" t="n">
-        <v>53.13964940227881</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="J39" t="n">
-        <v>107.7267972274735</v>
+        <v>89.63692412742667</v>
       </c>
       <c r="K39" t="n">
-        <v>232.6776313873097</v>
+        <v>214.5877582872628</v>
       </c>
       <c r="L39" t="n">
-        <v>419.4500769737226</v>
+        <v>401.3602038736757</v>
       </c>
       <c r="M39" t="n">
-        <v>853.1910587138432</v>
+        <v>627.1543699956561</v>
       </c>
       <c r="N39" t="n">
-        <v>1090.79682573244</v>
+        <v>864.7601370142527</v>
       </c>
       <c r="O39" t="n">
-        <v>1407.897834511329</v>
+        <v>1073.123976726313</v>
       </c>
       <c r="P39" t="n">
-        <v>1567.298293732328</v>
+        <v>1232.524435947312</v>
       </c>
       <c r="Q39" t="n">
-        <v>1653.63600483296</v>
+        <v>1666.265417687433</v>
       </c>
       <c r="R39" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="S39" t="n">
-        <v>1665.649939343973</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="T39" t="n">
-        <v>1510.897896606425</v>
+        <v>1597.73677237405</v>
       </c>
       <c r="U39" t="n">
-        <v>1510.897896606425</v>
+        <v>1400.4608769814</v>
       </c>
       <c r="V39" t="n">
-        <v>1370.259863206274</v>
+        <v>1186.749349974433</v>
       </c>
       <c r="W39" t="n">
-        <v>1157.026694942602</v>
+        <v>973.5161817107622</v>
       </c>
       <c r="X39" t="n">
-        <v>980.7007130814951</v>
+        <v>797.1901998496551</v>
       </c>
       <c r="Y39" t="n">
-        <v>821.2987534453251</v>
+        <v>637.7882402134851</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.8660068650482</v>
+        <v>692.8443391100041</v>
       </c>
       <c r="C40" t="n">
-        <v>799.7726344267647</v>
+        <v>521.7509666717206</v>
       </c>
       <c r="D40" t="n">
-        <v>640.2779897496748</v>
+        <v>362.2563219946305</v>
       </c>
       <c r="E40" t="n">
-        <v>594.7330887345445</v>
+        <v>201.34550686295</v>
       </c>
       <c r="F40" t="n">
-        <v>430.1019628451357</v>
+        <v>201.34550686295</v>
       </c>
       <c r="G40" t="n">
-        <v>263.8062322844177</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="H40" t="n">
-        <v>122.6865769302045</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="I40" t="n">
         <v>35.04977630223196</v>
       </c>
       <c r="J40" t="n">
-        <v>115.2836835121643</v>
+        <v>50.28231988082791</v>
       </c>
       <c r="K40" t="n">
-        <v>378.543013001709</v>
+        <v>107.2614557846585</v>
       </c>
       <c r="L40" t="n">
-        <v>777.5476490331416</v>
+        <v>506.2660918160911</v>
       </c>
       <c r="M40" t="n">
-        <v>1121.048255065947</v>
+        <v>940.0070735562117</v>
       </c>
       <c r="N40" t="n">
-        <v>1213.034657823964</v>
+        <v>1364.027777761814</v>
       </c>
       <c r="O40" t="n">
-        <v>1289.772188190077</v>
+        <v>1676.943631869032</v>
       </c>
       <c r="P40" t="n">
-        <v>1608.611787399959</v>
+        <v>1734.885747605796</v>
       </c>
       <c r="Q40" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="R40" t="n">
-        <v>1710.141104977461</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="S40" t="n">
-        <v>1710.141104977461</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="T40" t="n">
-        <v>1474.671369967409</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="U40" t="n">
-        <v>1474.671369967409</v>
+        <v>1617.509351316078</v>
       </c>
       <c r="V40" t="n">
-        <v>1474.671369967409</v>
+        <v>1343.6236062556</v>
       </c>
       <c r="W40" t="n">
-        <v>1195.601705476284</v>
+        <v>1343.6236062556</v>
       </c>
       <c r="X40" t="n">
-        <v>1195.601705476284</v>
+        <v>1105.279744115284</v>
       </c>
       <c r="Y40" t="n">
-        <v>970.8660068650482</v>
+        <v>880.5440455040484</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>618.2475617522</v>
+        <v>932.8709672908797</v>
       </c>
       <c r="C41" t="n">
-        <v>618.2475617522</v>
+        <v>932.8709672908797</v>
       </c>
       <c r="D41" t="n">
-        <v>618.2475617522</v>
+        <v>932.8709672908797</v>
       </c>
       <c r="E41" t="n">
-        <v>618.2475617522</v>
+        <v>932.8709672908797</v>
       </c>
       <c r="F41" t="n">
-        <v>618.2475617522</v>
+        <v>511.8405552445672</v>
       </c>
       <c r="G41" t="n">
-        <v>211.6475294984101</v>
+        <v>328.4646474866843</v>
       </c>
       <c r="H41" t="n">
         <v>39.35210940780838</v>
@@ -7417,13 +7417,13 @@
         <v>316.5867763250663</v>
       </c>
       <c r="L41" t="n">
-        <v>551.2268399181753</v>
+        <v>551.2268399181751</v>
       </c>
       <c r="M41" t="n">
-        <v>825.1352431304738</v>
+        <v>825.1352431304736</v>
       </c>
       <c r="N41" t="n">
-        <v>1105.344363062594</v>
+        <v>1105.344363062593</v>
       </c>
       <c r="O41" t="n">
         <v>1364.537108414119</v>
@@ -7441,22 +7441,22 @@
         <v>1752.488815111598</v>
       </c>
       <c r="T41" t="n">
-        <v>1752.488815111598</v>
+        <v>1539.598753546619</v>
       </c>
       <c r="U41" t="n">
-        <v>1752.488815111598</v>
+        <v>1282.708521954399</v>
       </c>
       <c r="V41" t="n">
-        <v>1402.651260448079</v>
+        <v>932.8709672908797</v>
       </c>
       <c r="W41" t="n">
-        <v>1018.890959583247</v>
+        <v>932.8709672908797</v>
       </c>
       <c r="X41" t="n">
-        <v>618.2475617522</v>
+        <v>932.8709672908797</v>
       </c>
       <c r="Y41" t="n">
-        <v>618.2475617522</v>
+        <v>932.8709672908797</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>565.3983745478216</v>
+        <v>515.3947011590612</v>
       </c>
       <c r="C42" t="n">
-        <v>431.4033032967673</v>
+        <v>381.399629908007</v>
       </c>
       <c r="D42" t="n">
-        <v>314.5061455161597</v>
+        <v>264.5024721273994</v>
       </c>
       <c r="E42" t="n">
-        <v>194.0133295084877</v>
+        <v>144.0096561197274</v>
       </c>
       <c r="F42" t="n">
-        <v>85.0534496909923</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="G42" t="n">
         <v>35.04977630223196</v>
@@ -7517,25 +7517,25 @@
         <v>1752.488815111598</v>
       </c>
       <c r="S42" t="n">
-        <v>1665.649939343973</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="T42" t="n">
-        <v>1665.649939343973</v>
+        <v>1597.73677237405</v>
       </c>
       <c r="U42" t="n">
-        <v>1468.374043951323</v>
+        <v>1418.370370562563</v>
       </c>
       <c r="V42" t="n">
-        <v>1254.662516944357</v>
+        <v>1204.658843555596</v>
       </c>
       <c r="W42" t="n">
-        <v>1041.429348680686</v>
+        <v>991.425675291925</v>
       </c>
       <c r="X42" t="n">
-        <v>865.1033668195782</v>
+        <v>815.0996934308179</v>
       </c>
       <c r="Y42" t="n">
-        <v>705.7014071834083</v>
+        <v>655.6977337946479</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>857.4754649994127</v>
+        <v>998.595120353626</v>
       </c>
       <c r="C43" t="n">
-        <v>686.3820925611292</v>
+        <v>827.5017479153425</v>
       </c>
       <c r="D43" t="n">
-        <v>526.8874478840393</v>
+        <v>668.0071032382525</v>
       </c>
       <c r="E43" t="n">
-        <v>365.9766327523587</v>
+        <v>507.096288106572</v>
       </c>
       <c r="F43" t="n">
-        <v>201.34550686295</v>
+        <v>342.4651622171633</v>
       </c>
       <c r="G43" t="n">
-        <v>35.04977630223196</v>
+        <v>176.1694316564452</v>
       </c>
       <c r="H43" t="n">
         <v>35.04977630223196</v>
@@ -7569,25 +7569,25 @@
         <v>35.04977630223196</v>
       </c>
       <c r="J43" t="n">
-        <v>115.2836835121643</v>
+        <v>50.28231988082791</v>
       </c>
       <c r="K43" t="n">
-        <v>378.543013001709</v>
+        <v>107.2614557846585</v>
       </c>
       <c r="L43" t="n">
-        <v>777.5476490331416</v>
+        <v>427.3696561384556</v>
       </c>
       <c r="M43" t="n">
-        <v>1121.048255065947</v>
+        <v>861.1106378785761</v>
       </c>
       <c r="N43" t="n">
-        <v>1213.034657823964</v>
+        <v>1285.131342084178</v>
       </c>
       <c r="O43" t="n">
-        <v>1289.772188190077</v>
+        <v>1676.943631869032</v>
       </c>
       <c r="P43" t="n">
-        <v>1608.611787399959</v>
+        <v>1734.885747605796</v>
       </c>
       <c r="Q43" t="n">
         <v>1752.488815111598</v>
@@ -7596,25 +7596,25 @@
         <v>1752.488815111598</v>
       </c>
       <c r="S43" t="n">
-        <v>1752.488815111598</v>
+        <v>1582.734176126389</v>
       </c>
       <c r="T43" t="n">
-        <v>1562.588698024899</v>
+        <v>1582.734176126389</v>
       </c>
       <c r="U43" t="n">
-        <v>1562.588698024899</v>
+        <v>1582.734176126389</v>
       </c>
       <c r="V43" t="n">
-        <v>1562.588698024899</v>
+        <v>1582.734176126389</v>
       </c>
       <c r="W43" t="n">
-        <v>1283.519033533774</v>
+        <v>1411.030525358906</v>
       </c>
       <c r="X43" t="n">
-        <v>1045.175171393457</v>
+        <v>1411.030525358906</v>
       </c>
       <c r="Y43" t="n">
-        <v>1045.175171393457</v>
+        <v>1186.29482674767</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1129.377573882129</v>
+        <v>742.8048629697876</v>
       </c>
       <c r="C44" t="n">
-        <v>1129.377573882129</v>
+        <v>742.8048629697876</v>
       </c>
       <c r="D44" t="n">
-        <v>724.9136439751896</v>
+        <v>742.8048629697876</v>
       </c>
       <c r="E44" t="n">
-        <v>310.5734284920864</v>
+        <v>328.4646474866843</v>
       </c>
       <c r="F44" t="n">
-        <v>310.5734284920864</v>
+        <v>328.4646474866843</v>
       </c>
       <c r="G44" t="n">
-        <v>35.04977630223196</v>
+        <v>328.4646474866843</v>
       </c>
       <c r="H44" t="n">
-        <v>35.04977630223196</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="I44" t="n">
         <v>35.04977630223196</v>
@@ -7654,10 +7654,10 @@
         <v>316.5867763250664</v>
       </c>
       <c r="L44" t="n">
-        <v>551.2268399181748</v>
+        <v>551.226839918175</v>
       </c>
       <c r="M44" t="n">
-        <v>825.1352431304731</v>
+        <v>825.1352431304733</v>
       </c>
       <c r="N44" t="n">
         <v>1105.344363062593</v>
@@ -7675,25 +7675,25 @@
         <v>1752.488815111598</v>
       </c>
       <c r="S44" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="T44" t="n">
-        <v>1539.598753546619</v>
+        <v>1493.579090685217</v>
       </c>
       <c r="U44" t="n">
-        <v>1539.598753546619</v>
+        <v>1493.579090685217</v>
       </c>
       <c r="V44" t="n">
-        <v>1539.598753546619</v>
+        <v>1143.741536021697</v>
       </c>
       <c r="W44" t="n">
-        <v>1539.598753546619</v>
+        <v>1143.741536021697</v>
       </c>
       <c r="X44" t="n">
-        <v>1539.598753546619</v>
+        <v>1143.741536021697</v>
       </c>
       <c r="Y44" t="n">
-        <v>1539.598753546619</v>
+        <v>742.8048629697876</v>
       </c>
     </row>
     <row r="45">
@@ -7727,49 +7727,49 @@
         <v>53.13964940227881</v>
       </c>
       <c r="J45" t="n">
-        <v>203.5903508091399</v>
+        <v>351.3952012021068</v>
       </c>
       <c r="K45" t="n">
-        <v>637.3313325492604</v>
+        <v>476.3460353619429</v>
       </c>
       <c r="L45" t="n">
-        <v>824.1037781356733</v>
+        <v>663.1184809483558</v>
       </c>
       <c r="M45" t="n">
-        <v>1049.897944257654</v>
+        <v>888.9126470703362</v>
       </c>
       <c r="N45" t="n">
-        <v>1287.50371127625</v>
+        <v>1126.518414088933</v>
       </c>
       <c r="O45" t="n">
-        <v>1495.867550988311</v>
+        <v>1334.882253800993</v>
       </c>
       <c r="P45" t="n">
-        <v>1655.26801020931</v>
+        <v>1494.282713021992</v>
       </c>
       <c r="Q45" t="n">
-        <v>1741.605721309941</v>
+        <v>1653.63600483296</v>
       </c>
       <c r="R45" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="S45" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.649939343973</v>
       </c>
       <c r="T45" t="n">
-        <v>1752.488815111598</v>
+        <v>1510.897896606424</v>
       </c>
       <c r="U45" t="n">
-        <v>1555.212919718948</v>
+        <v>1510.897896606424</v>
       </c>
       <c r="V45" t="n">
-        <v>1341.501392711982</v>
+        <v>1370.259863206274</v>
       </c>
       <c r="W45" t="n">
-        <v>1128.268224448311</v>
+        <v>1157.026694942602</v>
       </c>
       <c r="X45" t="n">
-        <v>951.9422425872035</v>
+        <v>980.7007130814951</v>
       </c>
       <c r="Y45" t="n">
         <v>821.2987534453251</v>
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1019.296528789717</v>
+        <v>526.8874478840393</v>
       </c>
       <c r="C46" t="n">
-        <v>915.138548543315</v>
+        <v>526.8874478840393</v>
       </c>
       <c r="D46" t="n">
-        <v>755.6439038662249</v>
+        <v>526.8874478840393</v>
       </c>
       <c r="E46" t="n">
-        <v>594.7330887345445</v>
+        <v>365.9766327523587</v>
       </c>
       <c r="F46" t="n">
-        <v>430.1019628451357</v>
+        <v>201.34550686295</v>
       </c>
       <c r="G46" t="n">
-        <v>263.8062322844177</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="H46" t="n">
-        <v>122.6865769302045</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="I46" t="n">
         <v>35.04977630223196</v>
       </c>
       <c r="J46" t="n">
-        <v>115.2836835121643</v>
+        <v>53.2622834098968</v>
       </c>
       <c r="K46" t="n">
-        <v>378.543013001709</v>
+        <v>110.2414193137274</v>
       </c>
       <c r="L46" t="n">
-        <v>777.5476490331416</v>
+        <v>509.2460553451601</v>
       </c>
       <c r="M46" t="n">
-        <v>932.2474558530437</v>
+        <v>600.2131544054579</v>
       </c>
       <c r="N46" t="n">
         <v>1024.23385861106</v>
       </c>
       <c r="O46" t="n">
-        <v>1416.046148395914</v>
+        <v>1416.046148395913</v>
       </c>
       <c r="P46" t="n">
         <v>1734.885747605796</v>
@@ -7830,28 +7830,28 @@
         <v>1752.488815111598</v>
       </c>
       <c r="R46" t="n">
-        <v>1710.141104977461</v>
+        <v>1710.14110497746</v>
       </c>
       <c r="S46" t="n">
-        <v>1540.386465992251</v>
+        <v>1710.14110497746</v>
       </c>
       <c r="T46" t="n">
-        <v>1540.386465992251</v>
+        <v>1474.671369967409</v>
       </c>
       <c r="U46" t="n">
-        <v>1257.640390930034</v>
+        <v>1191.925294905192</v>
       </c>
       <c r="V46" t="n">
-        <v>1257.640390930034</v>
+        <v>918.0395498447135</v>
       </c>
       <c r="W46" t="n">
-        <v>1257.640390930034</v>
+        <v>638.9698853535879</v>
       </c>
       <c r="X46" t="n">
-        <v>1019.296528789717</v>
+        <v>526.8874478840393</v>
       </c>
       <c r="Y46" t="n">
-        <v>1019.296528789717</v>
+        <v>526.8874478840393</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>121.7664343065107</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>198.1163785065899</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>73.75311182862205</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8853,19 +8853,19 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>47.24562195026141</v>
+        <v>346.2362451311338</v>
       </c>
       <c r="N13" t="n">
-        <v>335.3881832803894</v>
+        <v>298.8236563514362</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>19.76545843403778</v>
+        <v>1.492859343081371</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>121.7664343065106</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>198.1163785065899</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>338.155411904057</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.65794306195595</v>
+        <v>2.48496079303354</v>
       </c>
       <c r="K16" t="n">
         <v>208.3638319047618</v>
@@ -9093,19 +9093,19 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
-        <v>47.24562195026164</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P16" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>19.76545843403778</v>
+        <v>1.492859343081371</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>76.10131679041331</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.6114113003204</v>
+        <v>350.912394585342</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>58.17904385502305</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>346.2362451311341</v>
       </c>
       <c r="N19" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>154.1433510638792</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>57.82871769945612</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.912394585342</v>
+        <v>73.75311182862202</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,16 +9564,16 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>302.5047276679607</v>
       </c>
       <c r="N22" t="n">
-        <v>2.484960793033366</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O22" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>263.5328115890082</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.492859343081363</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>76.10131679041302</v>
+        <v>311.9092399800851</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9123945853421</v>
+        <v>7.973572833015083</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9801,10 +9801,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>237.4572480377651</v>
+        <v>237.4572480377648</v>
       </c>
       <c r="M25" t="n">
-        <v>346.2362451311341</v>
+        <v>346.236245131134</v>
       </c>
       <c r="N25" t="n">
         <v>335.3881832803894</v>
@@ -9956,7 +9956,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>73.75311182862188</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>162.6114113003206</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10038,10 +10038,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>237.4572480377651</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
-        <v>346.2362451311341</v>
+        <v>266.5428757597845</v>
       </c>
       <c r="N28" t="n">
         <v>335.3881832803894</v>
@@ -10272,25 +10272,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>317.1506174091142</v>
+        <v>237.4572480377651</v>
       </c>
       <c r="M31" t="n">
-        <v>320.7422935392364</v>
+        <v>346.2362451311341</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.492859343081363</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
         <v>246.129700984478</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>180.8840103912767</v>
+        <v>73.75311182862248</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L34" t="n">
-        <v>317.1506174091142</v>
+        <v>253.9776351401921</v>
       </c>
       <c r="M34" t="n">
-        <v>346.2362451311341</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>172.9060203128977</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>19.76545843403778</v>
+        <v>1.492859343081363</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10670,10 +10670,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>249.4631678320278</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>159.2779444527706</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>338.1554119040567</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
-        <v>237.4572480377648</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
-        <v>346.236245131134</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>64.37647248444895</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>19.76545843403778</v>
+        <v>1.492859343081363</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10910,22 +10910,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>210.0472885031718</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>109.8355243099285</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>350.9123945853421</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>76.1013167904128</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
-        <v>255.0843504772806</v>
+        <v>346.2362451311341</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>238.5639633748533</v>
       </c>
       <c r="P40" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>317.1506174091142</v>
+        <v>237.4572480377651</v>
       </c>
       <c r="M43" t="n">
-        <v>255.0843504772806</v>
+        <v>346.2362451311341</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>96.83187230471354</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>311.9092399800852</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>73.75311182862225</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,19 +11454,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>65.65794306195595</v>
+        <v>3.010064170776651</v>
       </c>
       <c r="K46" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>64.37647248444873</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
         <v>318.2573327462026</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -23266,19 +23266,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>221.6266853300332</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>266.4388507435768</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.534031931252</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4.259309774520673</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>85.91570073608037</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>210.7611609493298</v>
@@ -23320,13 +23320,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23387,10 +23387,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>85.97048700994887</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>65.9472218967209</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>93.08317306697479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -23433,10 +23433,10 @@
         <v>164.6327732551108</v>
       </c>
       <c r="H13" t="n">
-        <v>139.7084588006711</v>
+        <v>67.93517733815409</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>86.76043262169277</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.1150376599508</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>115.3853824002445</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>365.5806557328519</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>85.91570073608037</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>210.7611609493298</v>
       </c>
       <c r="U14" t="n">
-        <v>159.7632636768601</v>
+        <v>254.3213292762975</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>59.15212587485323</v>
+        <v>28.47088578934907</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>85.97048700994887</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>153.2045223101729</v>
       </c>
       <c r="U15" t="n">
-        <v>122.5232822246686</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.6327732551108</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>139.7084588006711</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.76043262169277</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>41.92423303279622</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.0570925953575</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9186143115952</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>4.466333480502158</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.8130890546319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,16 +23737,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>220.1863178445793</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>201.0990816464896</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>85.91570073608037</v>
       </c>
       <c r="T17" t="n">
-        <v>210.7611609493298</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3213292762975</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -23800,7 +23800,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23819,7 +23819,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>114.4413727992976</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>59.15212587485323</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>55.28924692444456</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>153.2045223101729</v>
@@ -23898,19 +23898,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>57.09547950050435</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.6327732551108</v>
       </c>
       <c r="H19" t="n">
-        <v>139.7084588006711</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>86.76043262169276</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>41.92423303279622</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>77.00736463496141</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
@@ -23977,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>402.534031931252</v>
+        <v>15.80276042214507</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2214126980871</v>
       </c>
       <c r="I20" t="n">
-        <v>4.259309774520659</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>85.91570073608037</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>210.7611609493298</v>
       </c>
       <c r="U20" t="n">
-        <v>47.82150381064596</v>
+        <v>254.3213292762975</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -24037,7 +24037,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24062,7 +24062,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>28.47088578934908</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24101,13 +24101,13 @@
         <v>85.97048700994887</v>
       </c>
       <c r="T21" t="n">
-        <v>153.2045223101729</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>181.6754080995222</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>105.3665077895626</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>7.859237961632573</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>139.7084588006711</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>341.4286174118083</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.534031931252</v>
       </c>
       <c r="H23" t="n">
         <v>286.2214126980871</v>
       </c>
       <c r="I23" t="n">
-        <v>4.259309774520659</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,13 +24262,13 @@
         <v>210.7611609493298</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3213292762975</v>
+        <v>111.594788856735</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -24287,7 +24287,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>55.28924692444481</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24299,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>104.7928835793171</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>59.15212587485323</v>
@@ -24335,13 +24335,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>85.97048700994887</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>153.2045223101729</v>
       </c>
       <c r="U24" t="n">
-        <v>17.73039864535129</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>147.7344150888453</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>139.7084588006711</v>
@@ -24414,13 +24414,13 @@
         <v>41.9242330327962</v>
       </c>
       <c r="S25" t="n">
-        <v>168.0570925953575</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>233.1150376599508</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9186143115952</v>
+        <v>104.0411616710194</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24448,22 +24448,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.534031931252</v>
       </c>
       <c r="H26" t="n">
         <v>286.2214126980871</v>
       </c>
       <c r="I26" t="n">
-        <v>4.259309774520659</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,10 +24499,10 @@
         <v>210.7611609493298</v>
       </c>
       <c r="U26" t="n">
-        <v>180.2445978931356</v>
+        <v>98.63873052842803</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24527,19 +24527,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>65.94722189672049</v>
       </c>
       <c r="G27" t="n">
-        <v>104.7928835793171</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>59.15212587485323</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24575,7 +24575,7 @@
         <v>85.97048700994887</v>
       </c>
       <c r="T27" t="n">
-        <v>17.73039864535126</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.6327732551108</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>82.33843090970812</v>
+        <v>86.76043262169276</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.9242330327962</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>201.5536037599654</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -24697,7 +24697,7 @@
         <v>402.534031931252</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>47.39917697750965</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>384.2563520792862</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24812,10 +24812,10 @@
         <v>85.97048700994887</v>
       </c>
       <c r="T30" t="n">
-        <v>17.73039864535126</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>17.7303986453513</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>21.56887055109399</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.6327732551108</v>
       </c>
       <c r="H31" t="n">
         <v>139.7084588006711</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.038253548741466</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>340.0838730143363</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>286.2214126980871</v>
       </c>
       <c r="I32" t="n">
-        <v>4.259309774520659</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>254.3213292762975</v>
       </c>
       <c r="V32" t="n">
-        <v>271.8713059404457</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -25004,7 +25004,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>103.7008856553</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>103.7008856553001</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>88.1468553561068</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.6327732551108</v>
       </c>
       <c r="H34" t="n">
-        <v>139.7084588006711</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>86.76043262169276</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9242330327962</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>108.8298815846141</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>137.1562363489145</v>
       </c>
       <c r="H35" t="n">
         <v>286.2214126980871</v>
       </c>
       <c r="I35" t="n">
-        <v>4.259309774520659</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>85.91570073608037</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>69.48773257982248</v>
+        <v>254.3213292762975</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25222,7 +25222,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>104.7928835793171</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>59.15212587485323</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,16 +25283,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>85.97048700994887</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>17.73039864535127</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>56.07148337257456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -25326,10 +25326,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>164.6327732551108</v>
+        <v>151.333490000866</v>
       </c>
       <c r="H37" t="n">
-        <v>119.5210405089566</v>
+        <v>139.7084588006711</v>
       </c>
       <c r="I37" t="n">
         <v>86.76043262169276</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>41.9242330327962</v>
       </c>
       <c r="S37" t="n">
-        <v>168.0570925953575</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>315.7272603928145</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -25405,13 +25405,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>86.51751248962013</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>286.2214126980871</v>
       </c>
       <c r="I38" t="n">
-        <v>4.259309774520659</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>85.91570073608037</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.7611609493298</v>
       </c>
       <c r="U38" t="n">
         <v>254.3213292762975</v>
@@ -25453,13 +25453,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25475,7 +25475,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25484,10 +25484,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>6.795096021866811</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>59.15212587485323</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,16 +25520,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>85.97048700994887</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3031364387235</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>72.342758670747</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>114.2122549753847</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.7084588006711</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>86.76043262169276</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>41.9242330327962</v>
       </c>
       <c r="S40" t="n">
         <v>168.0570925953575</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.1150376599508</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9186143115952</v>
+        <v>146.2889451540307</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>220.9918832509479</v>
       </c>
       <c r="H41" t="n">
-        <v>115.6489468083915</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>85.91570073608037</v>
       </c>
       <c r="T41" t="n">
-        <v>210.7611609493298</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3213292762975</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25721,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>55.28924692444438</v>
+        <v>104.7928835793171</v>
       </c>
       <c r="H42" t="n">
         <v>59.15212587485323</v>
@@ -25757,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>85.97048700994887</v>
       </c>
       <c r="T42" t="n">
-        <v>153.2045223101729</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>17.7303986453513</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>139.7084588006711</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>86.76043262169276</v>
@@ -25836,10 +25836,10 @@
         <v>41.9242330327962</v>
       </c>
       <c r="S43" t="n">
-        <v>168.0570925953575</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>45.11392174411895</v>
+        <v>233.1150376599508</v>
       </c>
       <c r="U43" t="n">
         <v>279.9186143115952</v>
@@ -25848,13 +25848,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>106.2923535864065</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>129.7656162632962</v>
+        <v>402.534031931252</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2214126980871</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.259309774520659</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>85.91570073608037</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>40.35623450329282</v>
       </c>
       <c r="U44" t="n">
         <v>254.3213292762975</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -25933,7 +25933,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25994,16 +25994,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>85.97048700994887</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>153.2045223101729</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>195.3031364387235</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>72.34275867074723</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.4708857893487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26025,10 +26025,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>66.26603826996261</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>139.7084588006711</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>86.76043262169276</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.0570925953575</v>
       </c>
       <c r="T46" t="n">
-        <v>233.1150376599508</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>124.9988104240603</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>420891.5027990029</v>
+        <v>420891.5027990027</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>420891.5027990028</v>
+        <v>420891.5027990027</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>420891.5027990029</v>
+        <v>420891.5027990028</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>420891.5027990028</v>
+        <v>420891.5027990027</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>420891.5027990029</v>
+        <v>420891.5027990027</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>420891.5027990027</v>
+        <v>420891.5027990028</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>420891.5027990027</v>
+        <v>420891.5027990029</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>420891.5027990028</v>
+        <v>420891.5027990027</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>421206.3036207484</v>
+        <v>421206.3036207485</v>
       </c>
       <c r="C2" t="n">
-        <v>421206.3036207484</v>
+        <v>421206.3036207485</v>
       </c>
       <c r="D2" t="n">
-        <v>421226.0814911601</v>
+        <v>421226.0814911603</v>
       </c>
       <c r="E2" t="n">
-        <v>235980.9258952224</v>
+        <v>235980.9258952223</v>
       </c>
       <c r="F2" t="n">
         <v>235980.9258952224</v>
       </c>
       <c r="G2" t="n">
-        <v>235980.9258952223</v>
+        <v>235980.9258952224</v>
       </c>
       <c r="H2" t="n">
         <v>235980.9258952223</v>
       </c>
       <c r="I2" t="n">
-        <v>235980.9258952224</v>
+        <v>235980.9258952223</v>
       </c>
       <c r="J2" t="n">
         <v>235980.9258952224</v>
@@ -26346,13 +26346,13 @@
         <v>235980.9258952224</v>
       </c>
       <c r="M2" t="n">
+        <v>235980.9258952224</v>
+      </c>
+      <c r="N2" t="n">
         <v>235980.9258952225</v>
       </c>
-      <c r="N2" t="n">
-        <v>235980.9258952224</v>
-      </c>
       <c r="O2" t="n">
-        <v>235980.9258952224</v>
+        <v>235980.9258952225</v>
       </c>
       <c r="P2" t="n">
         <v>235980.9258952224</v>
@@ -26426,40 +26426,40 @@
         <v>331614.6697031923</v>
       </c>
       <c r="E4" t="n">
-        <v>21919.08500145423</v>
+        <v>21919.08500145422</v>
       </c>
       <c r="F4" t="n">
         <v>21919.08500145423</v>
       </c>
       <c r="G4" t="n">
+        <v>21919.08500145423</v>
+      </c>
+      <c r="H4" t="n">
         <v>21919.08500145422</v>
       </c>
-      <c r="H4" t="n">
-        <v>21919.08500145421</v>
-      </c>
       <c r="I4" t="n">
-        <v>21919.08500145423</v>
+        <v>21919.08500145422</v>
       </c>
       <c r="J4" t="n">
-        <v>21919.08500145423</v>
+        <v>21919.08500145422</v>
       </c>
       <c r="K4" t="n">
         <v>21919.08500145423</v>
       </c>
       <c r="L4" t="n">
+        <v>21919.08500145423</v>
+      </c>
+      <c r="M4" t="n">
+        <v>21919.08500145423</v>
+      </c>
+      <c r="N4" t="n">
         <v>21919.08500145422</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21919.08500145422</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21919.08500145423</v>
       </c>
       <c r="O4" t="n">
         <v>21919.08500145423</v>
       </c>
       <c r="P4" t="n">
-        <v>21919.08500145423</v>
+        <v>21919.08500145422</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>38063.39795022208</v>
       </c>
       <c r="F5" t="n">
-        <v>38063.39795022209</v>
+        <v>38063.39795022208</v>
       </c>
       <c r="G5" t="n">
         <v>38063.39795022209</v>
@@ -26490,10 +26490,10 @@
         <v>38063.39795022209</v>
       </c>
       <c r="I5" t="n">
-        <v>38063.3979502221</v>
+        <v>38063.39795022209</v>
       </c>
       <c r="J5" t="n">
-        <v>38063.3979502221</v>
+        <v>38063.39795022209</v>
       </c>
       <c r="K5" t="n">
         <v>38063.3979502221</v>
@@ -26502,7 +26502,7 @@
         <v>38063.3979502221</v>
       </c>
       <c r="M5" t="n">
-        <v>38063.39795022209</v>
+        <v>38063.3979502221</v>
       </c>
       <c r="N5" t="n">
         <v>38063.3979502221</v>
@@ -26511,7 +26511,7 @@
         <v>38063.3979502221</v>
       </c>
       <c r="P5" t="n">
-        <v>38063.3979502221</v>
+        <v>38063.39795022209</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29431.0587015659</v>
+        <v>29422.25901593655</v>
       </c>
       <c r="C6" t="n">
-        <v>29431.0587015659</v>
+        <v>29422.25901593655</v>
       </c>
       <c r="D6" t="n">
-        <v>-27521.97035515885</v>
+        <v>-27530.69397205577</v>
       </c>
       <c r="E6" t="n">
-        <v>-299493.3379677685</v>
+        <v>-300214.5429523423</v>
       </c>
       <c r="F6" t="n">
-        <v>175998.442943546</v>
+        <v>175277.2379589724</v>
       </c>
       <c r="G6" t="n">
-        <v>175998.442943546</v>
+        <v>175277.2379589724</v>
       </c>
       <c r="H6" t="n">
-        <v>175998.442943546</v>
+        <v>175277.2379589722</v>
       </c>
       <c r="I6" t="n">
-        <v>175998.4429435461</v>
+        <v>175277.2379589723</v>
       </c>
       <c r="J6" t="n">
-        <v>175998.4429435461</v>
+        <v>175277.2379589723</v>
       </c>
       <c r="K6" t="n">
-        <v>175998.442943546</v>
+        <v>175277.2379589724</v>
       </c>
       <c r="L6" t="n">
-        <v>175998.442943546</v>
+        <v>175277.2379589723</v>
       </c>
       <c r="M6" t="n">
-        <v>66816.63727327851</v>
+        <v>66095.43228870472</v>
       </c>
       <c r="N6" t="n">
-        <v>175998.442943546</v>
+        <v>175277.2379589725</v>
       </c>
       <c r="O6" t="n">
-        <v>175998.442943546</v>
+        <v>175277.2379589724</v>
       </c>
       <c r="P6" t="n">
-        <v>175998.442943546</v>
+        <v>175277.2379589723</v>
       </c>
     </row>
   </sheetData>
@@ -26752,7 +26752,7 @@
         <v>524.108622042468</v>
       </c>
       <c r="G3" t="n">
-        <v>524.1086220424681</v>
+        <v>524.108622042468</v>
       </c>
       <c r="H3" t="n">
         <v>524.1086220424681</v>
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>438.1222037778993</v>
+      </c>
+      <c r="F4" t="n">
         <v>438.1222037778994</v>
-      </c>
-      <c r="F4" t="n">
-        <v>438.1222037778995</v>
       </c>
       <c r="G4" t="n">
         <v>438.1222037778995</v>
@@ -26810,10 +26810,10 @@
         <v>438.1222037778994</v>
       </c>
       <c r="I4" t="n">
-        <v>438.1222037778995</v>
+        <v>438.1222037778994</v>
       </c>
       <c r="J4" t="n">
-        <v>438.1222037778995</v>
+        <v>438.1222037778994</v>
       </c>
       <c r="K4" t="n">
         <v>438.1222037778995</v>
@@ -26822,7 +26822,7 @@
         <v>438.1222037778995</v>
       </c>
       <c r="M4" t="n">
-        <v>438.1222037778994</v>
+        <v>438.1222037778995</v>
       </c>
       <c r="N4" t="n">
         <v>438.1222037778995</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>438.1222037778995</v>
+        <v>438.1222037778994</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>438.1222037778994</v>
+        <v>438.1222037778993</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>438.1222037778995</v>
+        <v>438.1222037778994</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -32229,19 +32229,19 @@
         <v>2.106969334844091</v>
       </c>
       <c r="H17" t="n">
-        <v>21.57799970047206</v>
+        <v>21.57799970047205</v>
       </c>
       <c r="I17" t="n">
-        <v>81.22893528157691</v>
+        <v>81.2289352815769</v>
       </c>
       <c r="J17" t="n">
-        <v>178.8263885832239</v>
+        <v>178.8263885832238</v>
       </c>
       <c r="K17" t="n">
-        <v>268.0144005271743</v>
+        <v>268.0144005271742</v>
       </c>
       <c r="L17" t="n">
-        <v>332.4955633084093</v>
+        <v>332.4955633084091</v>
       </c>
       <c r="M17" t="n">
         <v>369.9653792169428</v>
@@ -32250,7 +32250,7 @@
         <v>375.9518058395686</v>
       </c>
       <c r="O17" t="n">
-        <v>355.0006295162127</v>
+        <v>355.0006295162126</v>
       </c>
       <c r="P17" t="n">
         <v>302.9848240622491</v>
@@ -32259,16 +32259,16 @@
         <v>227.528984758145</v>
       </c>
       <c r="R17" t="n">
-        <v>132.3519124799003</v>
+        <v>132.3519124799002</v>
       </c>
       <c r="S17" t="n">
-        <v>48.01256371775978</v>
+        <v>48.01256371775977</v>
       </c>
       <c r="T17" t="n">
-        <v>9.223258263280014</v>
+        <v>9.223258263280012</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1685575467875273</v>
+        <v>0.1685575467875272</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>10.88761495978788</v>
       </c>
       <c r="I18" t="n">
-        <v>38.81370455691864</v>
+        <v>38.81370455691863</v>
       </c>
       <c r="J18" t="n">
         <v>106.5077719567623</v>
@@ -32320,7 +32320,7 @@
         <v>182.0387465824297</v>
       </c>
       <c r="L18" t="n">
-        <v>244.7735597567207</v>
+        <v>244.7735597567206</v>
       </c>
       <c r="M18" t="n">
         <v>285.6391990131451</v>
@@ -32329,25 +32329,25 @@
         <v>293.1992186650596</v>
       </c>
       <c r="O18" t="n">
-        <v>268.2200039616771</v>
+        <v>268.220003961677</v>
       </c>
       <c r="P18" t="n">
         <v>215.2701998724998</v>
       </c>
       <c r="Q18" t="n">
-        <v>143.9024276973962</v>
+        <v>143.9024276973961</v>
       </c>
       <c r="R18" t="n">
-        <v>69.99322314748285</v>
+        <v>69.99322314748284</v>
       </c>
       <c r="S18" t="n">
-        <v>20.93962277688539</v>
+        <v>20.93962277688538</v>
       </c>
       <c r="T18" t="n">
-        <v>4.543922864688944</v>
+        <v>4.543922864688943</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07416631443997194</v>
+        <v>0.07416631443997192</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9451139086011719</v>
+        <v>0.9451139086011717</v>
       </c>
       <c r="H19" t="n">
-        <v>8.402921841926789</v>
+        <v>8.402921841926787</v>
       </c>
       <c r="I19" t="n">
         <v>28.42215281502434</v>
       </c>
       <c r="J19" t="n">
-        <v>66.81955333810285</v>
+        <v>66.81955333810284</v>
       </c>
       <c r="K19" t="n">
-        <v>109.8050522902089</v>
+        <v>109.8050522902088</v>
       </c>
       <c r="L19" t="n">
         <v>140.5126623751233</v>
@@ -32414,19 +32414,19 @@
         <v>114.3072312729999</v>
       </c>
       <c r="Q19" t="n">
-        <v>79.14040192841269</v>
+        <v>79.14040192841267</v>
       </c>
       <c r="R19" t="n">
-        <v>42.49575810855814</v>
+        <v>42.49575810855813</v>
       </c>
       <c r="S19" t="n">
-        <v>16.47075784353133</v>
+        <v>16.47075784353132</v>
       </c>
       <c r="T19" t="n">
-        <v>4.038213973114098</v>
+        <v>4.038213973114097</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05155166774188217</v>
+        <v>0.05155166774188216</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34137,7 +34137,7 @@
         <v>268.0144005271743</v>
       </c>
       <c r="L41" t="n">
-        <v>332.4955633084095</v>
+        <v>332.4955633084093</v>
       </c>
       <c r="M41" t="n">
         <v>369.9653792169428</v>
@@ -34155,7 +34155,7 @@
         <v>227.528984758145</v>
       </c>
       <c r="R41" t="n">
-        <v>132.3519124799003</v>
+        <v>132.3519124799005</v>
       </c>
       <c r="S41" t="n">
         <v>48.01256371775978</v>
@@ -35488,7 +35488,7 @@
         <v>18.2725990909564</v>
       </c>
       <c r="J12" t="n">
-        <v>176.904967463273</v>
+        <v>301.2682341412403</v>
       </c>
       <c r="K12" t="n">
         <v>126.2129637978143</v>
@@ -35500,7 +35500,7 @@
         <v>228.0749152747276</v>
       </c>
       <c r="N12" t="n">
-        <v>438.1222037778994</v>
+        <v>240.0058252713096</v>
       </c>
       <c r="O12" t="n">
         <v>210.468524961677</v>
@@ -35509,7 +35509,7 @@
         <v>161.010564869696</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.20980919255743</v>
+        <v>160.9629210211795</v>
       </c>
       <c r="R12" t="n">
         <v>99.85132351377567</v>
@@ -35573,19 +35573,19 @@
         <v>265.9185146359038</v>
       </c>
       <c r="L13" t="n">
-        <v>403.034985890336</v>
+        <v>85.8843684812218</v>
       </c>
       <c r="M13" t="n">
-        <v>139.1315805970268</v>
+        <v>438.1222037778993</v>
       </c>
       <c r="N13" t="n">
-        <v>428.3037416218203</v>
+        <v>391.7392146928671</v>
       </c>
       <c r="O13" t="n">
-        <v>77.51265693546753</v>
+        <v>395.76998968167</v>
       </c>
       <c r="P13" t="n">
-        <v>322.0602012221033</v>
+        <v>58.52738963309508</v>
       </c>
       <c r="Q13" t="n">
         <v>17.78087626848711</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>18.2725990909564</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>55.1385331567623</v>
@@ -35734,10 +35734,10 @@
         <v>188.6590359458716</v>
       </c>
       <c r="M15" t="n">
-        <v>349.8413495812383</v>
+        <v>228.0749152747276</v>
       </c>
       <c r="N15" t="n">
-        <v>438.1222037778995</v>
+        <v>240.0058252713096</v>
       </c>
       <c r="O15" t="n">
         <v>210.468524961677</v>
@@ -35746,7 +35746,7 @@
         <v>161.010564869696</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.20980919255743</v>
+        <v>425.3652210966144</v>
       </c>
       <c r="R15" t="n">
         <v>99.85132351377567</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04435071710336</v>
+        <v>17.87136844818096</v>
       </c>
       <c r="K16" t="n">
         <v>265.9185146359038</v>
@@ -35813,19 +35813,19 @@
         <v>403.034985890336</v>
       </c>
       <c r="M16" t="n">
-        <v>139.1315805970271</v>
+        <v>91.88595864676543</v>
       </c>
       <c r="N16" t="n">
-        <v>428.3037416218203</v>
+        <v>92.91555834143087</v>
       </c>
       <c r="O16" t="n">
-        <v>77.51265693546753</v>
+        <v>395.76998968167</v>
       </c>
       <c r="P16" t="n">
         <v>322.0602012221033</v>
       </c>
       <c r="Q16" t="n">
-        <v>17.78087626848711</v>
+        <v>145.3303310218579</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>105.5027972499159</v>
       </c>
       <c r="K17" t="n">
-        <v>178.8780108539572</v>
+        <v>178.8780108539571</v>
       </c>
       <c r="L17" t="n">
-        <v>237.0101652455645</v>
+        <v>237.0101652455643</v>
       </c>
       <c r="M17" t="n">
-        <v>276.6751547598974</v>
+        <v>276.6751547598973</v>
       </c>
       <c r="N17" t="n">
         <v>283.0395150829493</v>
       </c>
       <c r="O17" t="n">
-        <v>261.8108538904296</v>
+        <v>261.8108538904295</v>
       </c>
       <c r="P17" t="n">
-        <v>209.335460781365</v>
+        <v>209.3354607813649</v>
       </c>
       <c r="Q17" t="n">
-        <v>137.495180358993</v>
+        <v>137.4951803589929</v>
       </c>
       <c r="R17" t="n">
-        <v>45.03976966517676</v>
+        <v>45.03976966517673</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>18.27259909095641</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>301.2682341412404</v>
+        <v>131.2398499471756</v>
       </c>
       <c r="K18" t="n">
         <v>126.2129637978143</v>
@@ -35971,22 +35971,22 @@
         <v>188.6590359458716</v>
       </c>
       <c r="M18" t="n">
-        <v>228.0749152747277</v>
+        <v>228.0749152747276</v>
       </c>
       <c r="N18" t="n">
         <v>240.0058252713096</v>
       </c>
       <c r="O18" t="n">
-        <v>210.4685249616771</v>
+        <v>210.468524961677</v>
       </c>
       <c r="P18" t="n">
-        <v>161.0105648696961</v>
+        <v>161.010564869696</v>
       </c>
       <c r="Q18" t="n">
-        <v>249.8212204928778</v>
+        <v>438.1222037778995</v>
       </c>
       <c r="R18" t="n">
-        <v>10.99302404207744</v>
+        <v>10.99302404207743</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>73.56545151017048</v>
+        <v>81.04435071710336</v>
       </c>
       <c r="K19" t="n">
         <v>265.9185146359038</v>
       </c>
       <c r="L19" t="n">
-        <v>403.034985890336</v>
+        <v>85.8843684812218</v>
       </c>
       <c r="M19" t="n">
-        <v>91.88595864676546</v>
+        <v>438.1222037778995</v>
       </c>
       <c r="N19" t="n">
         <v>428.3037416218203</v>
       </c>
       <c r="O19" t="n">
-        <v>395.7699896816701</v>
+        <v>77.51265693546753</v>
       </c>
       <c r="P19" t="n">
-        <v>58.5273896330951</v>
+        <v>212.6707406969743</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.78087626848712</v>
+        <v>145.3303310218579</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>18.27259909095641</v>
       </c>
       <c r="J21" t="n">
-        <v>55.13853315676233</v>
+        <v>301.2682341412404</v>
       </c>
       <c r="K21" t="n">
-        <v>184.0416814972704</v>
+        <v>126.2129637978143</v>
       </c>
       <c r="L21" t="n">
         <v>188.6590359458716</v>
@@ -36220,10 +36220,10 @@
         <v>161.0105648696961</v>
       </c>
       <c r="Q21" t="n">
-        <v>438.1222037778994</v>
+        <v>160.9629210211795</v>
       </c>
       <c r="R21" t="n">
-        <v>10.99302404207744</v>
+        <v>99.85132351377567</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>265.9185146359038</v>
       </c>
       <c r="L22" t="n">
-        <v>403.034985890336</v>
+        <v>85.88436848122183</v>
       </c>
       <c r="M22" t="n">
-        <v>91.88595864676546</v>
+        <v>394.3906863147262</v>
       </c>
       <c r="N22" t="n">
-        <v>95.40051913446426</v>
+        <v>428.3037416218203</v>
       </c>
       <c r="O22" t="n">
-        <v>395.7699896816701</v>
+        <v>77.51265693546756</v>
       </c>
       <c r="P22" t="n">
         <v>322.0602012221033</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>18.27259909095641</v>
       </c>
       <c r="J24" t="n">
         <v>55.13853315676233</v>
       </c>
       <c r="K24" t="n">
-        <v>202.3142805882273</v>
+        <v>438.1222037778994</v>
       </c>
       <c r="L24" t="n">
         <v>188.6590359458716</v>
@@ -36457,10 +36457,10 @@
         <v>161.0105648696961</v>
       </c>
       <c r="Q24" t="n">
-        <v>438.1222037778995</v>
+        <v>95.18338202557254</v>
       </c>
       <c r="R24" t="n">
-        <v>10.99302404207744</v>
+        <v>99.85132351377567</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,10 +36521,10 @@
         <v>57.55468273114204</v>
       </c>
       <c r="L25" t="n">
-        <v>323.3416165189869</v>
+        <v>323.3416165189866</v>
       </c>
       <c r="M25" t="n">
-        <v>438.1222037778995</v>
+        <v>438.1222037778994</v>
       </c>
       <c r="N25" t="n">
         <v>428.3037416218203</v>
@@ -36612,13 +36612,13 @@
         <v>261.8108538904296</v>
       </c>
       <c r="P26" t="n">
-        <v>209.335460781365</v>
+        <v>209.3354607813647</v>
       </c>
       <c r="Q26" t="n">
         <v>137.495180358993</v>
       </c>
       <c r="R26" t="n">
-        <v>45.03976966517703</v>
+        <v>45.03976966517676</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>301.2682341412404</v>
       </c>
       <c r="K27" t="n">
-        <v>126.2129637978143</v>
+        <v>199.9660756264362</v>
       </c>
       <c r="L27" t="n">
         <v>188.6590359458716</v>
@@ -36694,10 +36694,10 @@
         <v>161.0105648696961</v>
       </c>
       <c r="Q27" t="n">
-        <v>249.8212204928781</v>
+        <v>87.20980919255746</v>
       </c>
       <c r="R27" t="n">
-        <v>10.99302404207744</v>
+        <v>99.85132351377567</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,10 +36758,10 @@
         <v>57.55468273114204</v>
       </c>
       <c r="L28" t="n">
-        <v>323.3416165189869</v>
+        <v>403.034985890336</v>
       </c>
       <c r="M28" t="n">
-        <v>438.1222037778995</v>
+        <v>358.42883440655</v>
       </c>
       <c r="N28" t="n">
         <v>428.3037416218203</v>
@@ -36992,25 +36992,25 @@
         <v>15.38640765514743</v>
       </c>
       <c r="K31" t="n">
-        <v>265.9185146359038</v>
+        <v>57.55468273114204</v>
       </c>
       <c r="L31" t="n">
-        <v>403.034985890336</v>
+        <v>323.3416165189869</v>
       </c>
       <c r="M31" t="n">
-        <v>412.6282521860019</v>
+        <v>438.1222037778995</v>
       </c>
       <c r="N31" t="n">
-        <v>92.91555834143089</v>
+        <v>428.3037416218203</v>
       </c>
       <c r="O31" t="n">
-        <v>77.51265693546756</v>
+        <v>395.7699896816701</v>
       </c>
       <c r="P31" t="n">
-        <v>322.0602012221033</v>
+        <v>58.5273896330951</v>
       </c>
       <c r="Q31" t="n">
-        <v>145.330331021858</v>
+        <v>17.78087626848712</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>105.5027972499159</v>
+        <v>105.5027972499161</v>
       </c>
       <c r="K32" t="n">
         <v>178.8780108539572</v>
       </c>
       <c r="L32" t="n">
-        <v>237.0101652455647</v>
+        <v>237.0101652455645</v>
       </c>
       <c r="M32" t="n">
         <v>276.6751547598974</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>18.27259909095641</v>
       </c>
       <c r="J33" t="n">
         <v>301.2682341412404</v>
@@ -37168,10 +37168,10 @@
         <v>161.0105648696961</v>
       </c>
       <c r="Q33" t="n">
-        <v>268.0938195838342</v>
+        <v>160.9629210211799</v>
       </c>
       <c r="R33" t="n">
-        <v>10.99302404207744</v>
+        <v>99.85132351377567</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,25 +37229,25 @@
         <v>81.04435071710338</v>
       </c>
       <c r="K34" t="n">
-        <v>57.55468273114204</v>
+        <v>265.9185146359038</v>
       </c>
       <c r="L34" t="n">
-        <v>403.034985890336</v>
+        <v>339.862003621414</v>
       </c>
       <c r="M34" t="n">
-        <v>438.1222037778995</v>
+        <v>91.88595864676546</v>
       </c>
       <c r="N34" t="n">
-        <v>428.3037416218203</v>
+        <v>92.91555834143089</v>
       </c>
       <c r="O34" t="n">
-        <v>250.4186772483653</v>
+        <v>395.7699896816701</v>
       </c>
       <c r="P34" t="n">
-        <v>58.5273896330951</v>
+        <v>322.0602012221033</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.78087626848712</v>
+        <v>145.330331021858</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>18.27259909095641</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>55.13853315676233</v>
@@ -37390,10 +37390,10 @@
         <v>126.2129637978143</v>
       </c>
       <c r="L36" t="n">
-        <v>438.1222037778994</v>
+        <v>188.6590359458716</v>
       </c>
       <c r="M36" t="n">
-        <v>387.3528597274982</v>
+        <v>228.0749152747277</v>
       </c>
       <c r="N36" t="n">
         <v>240.0058252713096</v>
@@ -37405,10 +37405,10 @@
         <v>161.0105648696961</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.20980919255746</v>
+        <v>425.3652210966142</v>
       </c>
       <c r="R36" t="n">
-        <v>10.99302404207744</v>
+        <v>99.85132351377567</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>15.38640765514743</v>
+        <v>81.04435071710338</v>
       </c>
       <c r="K37" t="n">
-        <v>57.55468273114204</v>
+        <v>265.9185146359038</v>
       </c>
       <c r="L37" t="n">
-        <v>323.3416165189866</v>
+        <v>403.034985890336</v>
       </c>
       <c r="M37" t="n">
-        <v>438.1222037778994</v>
+        <v>91.88595864676546</v>
       </c>
       <c r="N37" t="n">
-        <v>428.3037416218203</v>
+        <v>92.91555834143089</v>
       </c>
       <c r="O37" t="n">
         <v>395.7699896816701</v>
       </c>
       <c r="P37" t="n">
-        <v>58.5273896330951</v>
+        <v>322.0602012221033</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.78087626848712</v>
+        <v>82.15734875293607</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>18.27259909095641</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>55.13853315676233</v>
@@ -37630,22 +37630,22 @@
         <v>188.6590359458716</v>
       </c>
       <c r="M39" t="n">
-        <v>438.1222037778995</v>
+        <v>228.0749152747277</v>
       </c>
       <c r="N39" t="n">
         <v>240.0058252713096</v>
       </c>
       <c r="O39" t="n">
-        <v>320.3040492716056</v>
+        <v>210.4685249616771</v>
       </c>
       <c r="P39" t="n">
         <v>161.0105648696961</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.20980919255746</v>
+        <v>438.1222037778995</v>
       </c>
       <c r="R39" t="n">
-        <v>99.85132351377567</v>
+        <v>87.09434083249025</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04435071710338</v>
+        <v>15.38640765514743</v>
       </c>
       <c r="K40" t="n">
-        <v>265.9185146359038</v>
+        <v>57.55468273114204</v>
       </c>
       <c r="L40" t="n">
         <v>403.034985890336</v>
       </c>
       <c r="M40" t="n">
-        <v>346.970309124046</v>
+        <v>438.1222037778995</v>
       </c>
       <c r="N40" t="n">
-        <v>92.91555834143089</v>
+        <v>428.3037416218203</v>
       </c>
       <c r="O40" t="n">
-        <v>77.51265693546756</v>
+        <v>316.0766203103209</v>
       </c>
       <c r="P40" t="n">
-        <v>322.0602012221033</v>
+        <v>58.5273896330951</v>
       </c>
       <c r="Q40" t="n">
-        <v>145.330331021858</v>
+        <v>17.78087626848712</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>178.8780108539572</v>
       </c>
       <c r="L41" t="n">
-        <v>237.0101652455647</v>
+        <v>237.0101652455645</v>
       </c>
       <c r="M41" t="n">
         <v>276.6751547598974</v>
@@ -37803,7 +37803,7 @@
         <v>137.495180358993</v>
       </c>
       <c r="R41" t="n">
-        <v>45.03976966517676</v>
+        <v>45.03976966517703</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04435071710338</v>
+        <v>15.38640765514743</v>
       </c>
       <c r="K43" t="n">
-        <v>265.9185146359038</v>
+        <v>57.55468273114204</v>
       </c>
       <c r="L43" t="n">
-        <v>403.034985890336</v>
+        <v>323.3416165189869</v>
       </c>
       <c r="M43" t="n">
-        <v>346.970309124046</v>
+        <v>438.1222037778995</v>
       </c>
       <c r="N43" t="n">
-        <v>92.91555834143089</v>
+        <v>428.3037416218203</v>
       </c>
       <c r="O43" t="n">
-        <v>77.51265693546756</v>
+        <v>395.7699896816701</v>
       </c>
       <c r="P43" t="n">
-        <v>322.0602012221033</v>
+        <v>58.5273896330951</v>
       </c>
       <c r="Q43" t="n">
-        <v>145.330331021858</v>
+        <v>17.78087626848712</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>18.27259909095641</v>
       </c>
       <c r="J45" t="n">
-        <v>151.9704054614759</v>
+        <v>301.2682341412404</v>
       </c>
       <c r="K45" t="n">
-        <v>438.1222037778995</v>
+        <v>126.2129637978143</v>
       </c>
       <c r="L45" t="n">
         <v>188.6590359458716</v>
@@ -38116,10 +38116,10 @@
         <v>161.0105648696961</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.20980919255746</v>
+        <v>160.9629210211797</v>
       </c>
       <c r="R45" t="n">
-        <v>10.99302404207744</v>
+        <v>99.85132351377567</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04435071710338</v>
+        <v>18.39647182592408</v>
       </c>
       <c r="K46" t="n">
-        <v>265.9185146359038</v>
+        <v>57.55468273114204</v>
       </c>
       <c r="L46" t="n">
         <v>403.034985890336</v>
       </c>
       <c r="M46" t="n">
-        <v>156.2624311312142</v>
+        <v>91.88595864676546</v>
       </c>
       <c r="N46" t="n">
-        <v>92.91555834143089</v>
+        <v>428.3037416218203</v>
       </c>
       <c r="O46" t="n">
         <v>395.7699896816701</v>
